--- a/Others/TestCuts/TestCut2MIP/pre_cut2_analysis.xlsx
+++ b/Others/TestCuts/TestCut2MIP/pre_cut2_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>Sc(N/M)</t>
   </si>
@@ -84,12 +84,6 @@
     <t xml:space="preserve"> nbConCut2</t>
   </si>
   <si>
-    <t xml:space="preserve"> *</t>
-  </si>
-  <si>
-    <t>Sc1-1</t>
-  </si>
-  <si>
     <t>Sc1-2</t>
   </si>
   <si>
@@ -135,45 +129,21 @@
     <t>Sc1-16</t>
   </si>
   <si>
-    <t>Sc1-17</t>
-  </si>
-  <si>
     <t>Sc1-18</t>
   </si>
   <si>
     <t>Sc1-19</t>
   </si>
   <si>
-    <t>Sc2-1</t>
-  </si>
-  <si>
-    <t>Sc2-2</t>
-  </si>
-  <si>
-    <t>Sc2-3</t>
-  </si>
-  <si>
-    <t>Sc2-4</t>
-  </si>
-  <si>
-    <t>Sc2-5</t>
-  </si>
-  <si>
     <t>Sc2-6</t>
   </si>
   <si>
     <t>Sc2-7</t>
   </si>
   <si>
-    <t>Sc2-8</t>
-  </si>
-  <si>
     <t>Sc2-9</t>
   </si>
   <si>
-    <t>Sc2-10</t>
-  </si>
-  <si>
     <t>Sc2-11</t>
   </si>
   <si>
@@ -189,9 +159,6 @@
     <t>Sc2-15</t>
   </si>
   <si>
-    <t>Sc2-16</t>
-  </si>
-  <si>
     <t>Sc2-17</t>
   </si>
   <si>
@@ -207,9 +174,6 @@
     <t>Sc3-2</t>
   </si>
   <si>
-    <t>Sc3-3</t>
-  </si>
-  <si>
     <t>Sc3-4</t>
   </si>
   <si>
@@ -315,33 +279,15 @@
     <t>Sc4-19</t>
   </si>
   <si>
-    <t>Sc5-1</t>
-  </si>
-  <si>
-    <t>Sc5-2</t>
-  </si>
-  <si>
-    <t>Sc5-3</t>
-  </si>
-  <si>
     <t>Sc5-4</t>
   </si>
   <si>
     <t>Sc5-5</t>
   </si>
   <si>
-    <t>Sc5-6</t>
-  </si>
-  <si>
-    <t>Sc5-7</t>
-  </si>
-  <si>
     <t>Sc5-8</t>
   </si>
   <si>
-    <t>Sc5-9</t>
-  </si>
-  <si>
     <t>Sc5-10</t>
   </si>
   <si>
@@ -357,217 +303,43 @@
     <t>Sc5-14</t>
   </si>
   <si>
-    <t>Sc5-15</t>
-  </si>
-  <si>
     <t>Sc5-16</t>
   </si>
   <si>
-    <t>Sc5-17</t>
-  </si>
-  <si>
     <t>Sc5-18</t>
   </si>
   <si>
-    <t>Sc5-19</t>
-  </si>
-  <si>
-    <t>Sc6-1</t>
-  </si>
-  <si>
-    <t>Sc6-2</t>
-  </si>
-  <si>
-    <t>Sc6-3</t>
-  </si>
-  <si>
-    <t>Sc6-4</t>
-  </si>
-  <si>
-    <t>Sc6-5</t>
-  </si>
-  <si>
     <t>Sc6-6</t>
   </si>
   <si>
-    <t>Sc6-7</t>
-  </si>
-  <si>
-    <t>Sc6-8</t>
-  </si>
-  <si>
-    <t>Sc6-9</t>
-  </si>
-  <si>
-    <t>Sc6-10</t>
-  </si>
-  <si>
     <t>Sc6-11</t>
   </si>
   <si>
     <t>Sc6-12</t>
   </si>
   <si>
-    <t>Sc6-13</t>
-  </si>
-  <si>
-    <t>Sc6-14</t>
-  </si>
-  <si>
-    <t>Sc6-15</t>
-  </si>
-  <si>
     <t>Sc6-16</t>
   </si>
   <si>
-    <t>Sc6-17</t>
-  </si>
-  <si>
     <t>Sc6-18</t>
   </si>
   <si>
-    <t>Sc6-19</t>
-  </si>
-  <si>
-    <t>Sc7-1</t>
-  </si>
-  <si>
-    <t>Sc7-2</t>
-  </si>
-  <si>
-    <t>Sc7-3</t>
-  </si>
-  <si>
-    <t>Sc7-4</t>
-  </si>
-  <si>
-    <t>Sc7-5</t>
-  </si>
-  <si>
-    <t>Sc7-6</t>
-  </si>
-  <si>
-    <t>Sc7-7</t>
-  </si>
-  <si>
-    <t>Sc7-8</t>
-  </si>
-  <si>
-    <t>Sc7-9</t>
-  </si>
-  <si>
-    <t>Sc7-10</t>
-  </si>
-  <si>
-    <t>Sc7-11</t>
-  </si>
-  <si>
-    <t>Sc7-12</t>
-  </si>
-  <si>
     <t>Sc7-13</t>
   </si>
   <si>
-    <t>Sc7-14</t>
-  </si>
-  <si>
-    <t>Sc7-15</t>
-  </si>
-  <si>
-    <t>Sc7-16</t>
-  </si>
-  <si>
-    <t>Sc7-17</t>
-  </si>
-  <si>
-    <t>Sc7-18</t>
-  </si>
-  <si>
-    <t>Sc7-19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> isMIPExcuted</t>
   </si>
   <si>
     <t>Sc1-20</t>
   </si>
   <si>
-    <t>Sc2-20</t>
-  </si>
-  <si>
     <t>Sc3-20</t>
   </si>
   <si>
     <t>Sc4-20</t>
   </si>
   <si>
-    <t>Sc5-20</t>
-  </si>
-  <si>
     <t>Sc6-20</t>
-  </si>
-  <si>
-    <t>Sc7-20</t>
-  </si>
-  <si>
-    <t>Sc8-1</t>
-  </si>
-  <si>
-    <t>Sc8-2</t>
-  </si>
-  <si>
-    <t>Sc8-3</t>
-  </si>
-  <si>
-    <t>Sc8-4</t>
-  </si>
-  <si>
-    <t>Sc8-5</t>
-  </si>
-  <si>
-    <t>Sc8-6</t>
-  </si>
-  <si>
-    <t>Sc8-7</t>
-  </si>
-  <si>
-    <t>Sc8-8</t>
-  </si>
-  <si>
-    <t>Sc8-9</t>
-  </si>
-  <si>
-    <t>Sc8-10</t>
-  </si>
-  <si>
-    <t>Sc8-11</t>
-  </si>
-  <si>
-    <t>Sc8-12</t>
-  </si>
-  <si>
-    <t>Sc8-13</t>
-  </si>
-  <si>
-    <t>Sc8-14</t>
-  </si>
-  <si>
-    <t>Sc8-15</t>
-  </si>
-  <si>
-    <t>Sc8-16</t>
-  </si>
-  <si>
-    <t>Sc8-17</t>
-  </si>
-  <si>
-    <t>Sc8-18</t>
-  </si>
-  <si>
-    <t>Sc8-19</t>
-  </si>
-  <si>
-    <t>Sc8-20</t>
   </si>
   <si>
     <t xml:space="preserve"> sol_with_Pre</t>
@@ -1424,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE161"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE99" sqref="AE99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -1505,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -1530,120 +1302,28 @@
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="1" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="AB1" s="6"/>
       <c r="AC1" s="1" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="7" t="str">
-        <f>IF(K2=" *", "", K2/J2*100)</f>
-        <v/>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="7" t="str">
-        <f>IF(OR(Z2=" *", Y2=Z2), "", (Z2-Y2)/Y2*100)</f>
-        <v/>
-      </c>
-      <c r="AC2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" s="7" t="str">
-        <f>IF(OR(AD2=" *", AC2=AD2), "", (AD2-AC2)/AC2*100)</f>
-        <v/>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1735,7 +1415,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1827,7 +1507,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1919,7 +1599,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2011,7 +1691,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2103,7 +1783,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2195,7 +1875,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2287,7 +1967,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2379,7 +2059,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2471,7 +2151,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2563,7 +2243,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2655,7 +2335,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2747,7 +2427,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2839,7 +2519,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2931,7 +2611,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3021,101 +2701,9 @@
         <v>199.99999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3207,7 +2795,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3299,7 +2887,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3389,469 +2977,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" t="s">
-        <v>21</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE22" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" t="s">
-        <v>21</v>
-      </c>
-      <c r="T23" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE23" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC24" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE24" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE25" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" t="s">
-        <v>21</v>
-      </c>
-      <c r="T26" t="s">
-        <v>21</v>
-      </c>
-      <c r="U26" t="s">
-        <v>21</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC26" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3943,7 +3071,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4033,101 +3161,9 @@
         <v>64.86486486486487</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" t="s">
-        <v>21</v>
-      </c>
-      <c r="T29" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC29" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE29" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4217,101 +3253,9 @@
         <v>28.888888888888875</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31" t="s">
-        <v>21</v>
-      </c>
-      <c r="U31" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC31" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE31" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4403,7 +3347,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4495,7 +3439,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4587,7 +3531,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4679,7 +3623,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4769,101 +3713,9 @@
         <v>130.76923076923075</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" t="s">
-        <v>21</v>
-      </c>
-      <c r="T37" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" t="s">
-        <v>21</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W37" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC37" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE37" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4955,7 +3807,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5047,7 +3899,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5137,101 +3989,9 @@
         <v>-9.0909090909090864</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" t="s">
-        <v>21</v>
-      </c>
-      <c r="T41" t="s">
-        <v>21</v>
-      </c>
-      <c r="U41" t="s">
-        <v>21</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC41" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE41" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5323,7 +4083,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5413,101 +4173,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" t="s">
-        <v>21</v>
-      </c>
-      <c r="O44" t="s">
-        <v>21</v>
-      </c>
-      <c r="P44" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" t="s">
-        <v>21</v>
-      </c>
-      <c r="T44" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44" t="s">
-        <v>21</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W44" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC44" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE44" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5599,7 +4267,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5691,7 +4359,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5783,7 +4451,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5875,7 +4543,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5967,7 +4635,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6059,7 +4727,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6151,7 +4819,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6243,7 +4911,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6335,7 +5003,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6427,7 +5095,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6519,7 +5187,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6611,7 +5279,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6703,7 +5371,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6795,7 +5463,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6887,7 +5555,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6979,7 +5647,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7071,7 +5739,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7163,7 +5831,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7255,7 +5923,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7347,7 +6015,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7439,7 +6107,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7531,7 +6199,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7623,7 +6291,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -7715,7 +6383,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7807,7 +6475,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7899,7 +6567,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7991,7 +6659,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8083,7 +6751,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8175,7 +6843,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8267,7 +6935,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8359,7 +7027,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -8451,7 +7119,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8543,7 +7211,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8635,7 +7303,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8727,7 +7395,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8819,7 +7487,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8909,285 +7577,9 @@
         <v>92.550790067720087</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>1132468</v>
-      </c>
-      <c r="E82">
-        <v>-1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>2892</v>
-      </c>
-      <c r="I82">
-        <v>133620</v>
-      </c>
-      <c r="J82">
-        <v>12120</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
-      <c r="L82" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>784991</v>
-      </c>
-      <c r="N82">
-        <v>1012335.06</v>
-      </c>
-      <c r="O82">
-        <v>1.44</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
-      <c r="S82">
-        <v>-1</v>
-      </c>
-      <c r="T82">
-        <v>-1</v>
-      </c>
-      <c r="U82">
-        <v>-1</v>
-      </c>
-      <c r="V82" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>1132468</v>
-      </c>
-      <c r="Z82" s="1">
-        <v>784991</v>
-      </c>
-      <c r="AA82" s="7">
-        <f t="shared" si="3"/>
-        <v>-30.68316279135481</v>
-      </c>
-      <c r="AC82" s="1">
-        <v>1800.21</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>1.76</v>
-      </c>
-      <c r="AE82" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.902233628298916</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>966248</v>
-      </c>
-      <c r="E83">
-        <v>-1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>3216</v>
-      </c>
-      <c r="I83">
-        <v>133620</v>
-      </c>
-      <c r="J83">
-        <v>11880</v>
-      </c>
-      <c r="K83" s="1">
-        <v>0</v>
-      </c>
-      <c r="L83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>862141</v>
-      </c>
-      <c r="N83">
-        <v>923530.65</v>
-      </c>
-      <c r="O83">
-        <v>1.23</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="S83">
-        <v>-1</v>
-      </c>
-      <c r="T83">
-        <v>-1</v>
-      </c>
-      <c r="U83">
-        <v>-1</v>
-      </c>
-      <c r="V83" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="1">
-        <v>966248</v>
-      </c>
-      <c r="Z83" s="1">
-        <v>862141</v>
-      </c>
-      <c r="AA83" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.774356065937523</v>
-      </c>
-      <c r="AC83" s="1">
-        <v>1800.29</v>
-      </c>
-      <c r="AD83" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="AE83" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.914458226174673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>668945</v>
-      </c>
-      <c r="E84">
-        <v>-1</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>2856</v>
-      </c>
-      <c r="I84">
-        <v>133620</v>
-      </c>
-      <c r="J84">
-        <v>11280</v>
-      </c>
-      <c r="K84" s="1">
-        <v>0</v>
-      </c>
-      <c r="L84" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>980050</v>
-      </c>
-      <c r="N84">
-        <v>615245.6</v>
-      </c>
-      <c r="O84">
-        <v>7.6</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84">
-        <v>-1</v>
-      </c>
-      <c r="U84">
-        <v>4.67</v>
-      </c>
-      <c r="V84" s="4">
-        <v>15969</v>
-      </c>
-      <c r="W84">
-        <v>11</v>
-      </c>
-      <c r="Y84" s="1">
-        <v>668945</v>
-      </c>
-      <c r="Z84" s="1">
-        <v>664880</v>
-      </c>
-      <c r="AA84" s="7">
-        <f t="shared" si="3"/>
-        <v>-0.60767327657729708</v>
-      </c>
-      <c r="AC84" s="1">
-        <v>1800.21</v>
-      </c>
-      <c r="AD84" s="1">
-        <v>1807.98</v>
-      </c>
-      <c r="AE84" s="7">
-        <f t="shared" si="5"/>
-        <v>0.43161631143033208</v>
-      </c>
-    </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -9279,7 +7671,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -9369,193 +7761,9 @@
         <v>159.17748917748915</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>860439</v>
-      </c>
-      <c r="E87">
-        <v>-1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>3000</v>
-      </c>
-      <c r="I87">
-        <v>133620</v>
-      </c>
-      <c r="J87">
-        <v>12240</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>666933</v>
-      </c>
-      <c r="N87">
-        <v>735840.45</v>
-      </c>
-      <c r="O87">
-        <v>2.5</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="S87">
-        <v>-1</v>
-      </c>
-      <c r="T87">
-        <v>-1</v>
-      </c>
-      <c r="U87">
-        <v>-1</v>
-      </c>
-      <c r="V87" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="1">
-        <v>860439</v>
-      </c>
-      <c r="Z87" s="1">
-        <v>666933</v>
-      </c>
-      <c r="AA87" s="7">
-        <f t="shared" si="3"/>
-        <v>-22.489217713283569</v>
-      </c>
-      <c r="AC87" s="1">
-        <v>1800.31</v>
-      </c>
-      <c r="AD87" s="1">
-        <v>2.81</v>
-      </c>
-      <c r="AE87" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.843915770061827</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>754649</v>
-      </c>
-      <c r="E88">
-        <v>-1</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>3264</v>
-      </c>
-      <c r="I88">
-        <v>133620</v>
-      </c>
-      <c r="J88">
-        <v>10920</v>
-      </c>
-      <c r="K88" s="1">
-        <v>0</v>
-      </c>
-      <c r="L88" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>686324</v>
-      </c>
-      <c r="N88">
-        <v>698310.19</v>
-      </c>
-      <c r="O88">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>1</v>
-      </c>
-      <c r="S88">
-        <v>-1</v>
-      </c>
-      <c r="T88">
-        <v>-1</v>
-      </c>
-      <c r="U88">
-        <v>-1</v>
-      </c>
-      <c r="V88" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>754649</v>
-      </c>
-      <c r="Z88" s="1">
-        <v>686324</v>
-      </c>
-      <c r="AA88" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.0538780280633784</v>
-      </c>
-      <c r="AC88" s="1">
-        <v>1800.24</v>
-      </c>
-      <c r="AD88" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="AE88" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.951673110251974</v>
-      </c>
-    </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -9645,101 +7853,9 @@
         <v>29.10956429586453</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>1277871</v>
-      </c>
-      <c r="E90">
-        <v>-1</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>3120</v>
-      </c>
-      <c r="I90">
-        <v>133620</v>
-      </c>
-      <c r="J90">
-        <v>11400</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>524059</v>
-      </c>
-      <c r="N90">
-        <v>1061163.19</v>
-      </c>
-      <c r="O90">
-        <v>0.7</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>1</v>
-      </c>
-      <c r="S90">
-        <v>-1</v>
-      </c>
-      <c r="T90">
-        <v>-1</v>
-      </c>
-      <c r="U90">
-        <v>-1</v>
-      </c>
-      <c r="V90" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="1">
-        <v>1277871</v>
-      </c>
-      <c r="Z90" s="1">
-        <v>524059</v>
-      </c>
-      <c r="AA90" s="7">
-        <f t="shared" si="3"/>
-        <v>-58.989678926902634</v>
-      </c>
-      <c r="AC90" s="1">
-        <v>1011.8</v>
-      </c>
-      <c r="AD90" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="AE90" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.898201225538656</v>
-      </c>
-    </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -9831,7 +7947,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -9923,7 +8039,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -10015,7 +8131,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10107,7 +8223,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -10197,101 +8313,9 @@
         <v>18.944750798131977</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L96" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M96" t="s">
-        <v>21</v>
-      </c>
-      <c r="N96" t="s">
-        <v>21</v>
-      </c>
-      <c r="O96" t="s">
-        <v>21</v>
-      </c>
-      <c r="P96" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>21</v>
-      </c>
-      <c r="R96" t="s">
-        <v>21</v>
-      </c>
-      <c r="S96" t="s">
-        <v>21</v>
-      </c>
-      <c r="T96" t="s">
-        <v>21</v>
-      </c>
-      <c r="U96" t="s">
-        <v>21</v>
-      </c>
-      <c r="V96" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W96" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y96" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA96" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC96" s="1">
-        <v>1.51</v>
-      </c>
-      <c r="AD96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE96" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -10381,101 +8405,9 @@
         <v>8.2079843889747242</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>973821</v>
-      </c>
-      <c r="E98">
-        <v>-1</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>2856</v>
-      </c>
-      <c r="I98">
-        <v>133620</v>
-      </c>
-      <c r="J98">
-        <v>12240</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0</v>
-      </c>
-      <c r="L98" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>1003591</v>
-      </c>
-      <c r="N98">
-        <v>919232.37</v>
-      </c>
-      <c r="O98">
-        <v>8.6</v>
-      </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98">
-        <v>1</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>1</v>
-      </c>
-      <c r="T98">
-        <v>-1</v>
-      </c>
-      <c r="U98">
-        <v>5</v>
-      </c>
-      <c r="V98" s="4">
-        <v>39433</v>
-      </c>
-      <c r="W98">
-        <v>11</v>
-      </c>
-      <c r="Y98" s="1">
-        <v>973821</v>
-      </c>
-      <c r="Z98" s="1">
-        <v>975500</v>
-      </c>
-      <c r="AA98" s="7">
-        <f t="shared" si="3"/>
-        <v>0.17241361605469588</v>
-      </c>
-      <c r="AC98" s="1">
-        <v>1800.29</v>
-      </c>
-      <c r="AD98" s="1">
-        <v>1809.06</v>
-      </c>
-      <c r="AE98" s="7">
-        <f t="shared" si="5"/>
-        <v>0.48714373795332877</v>
-      </c>
-    </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -10565,653 +8497,9 @@
         <v>-21.30217519106407</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L100" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M100" t="s">
-        <v>21</v>
-      </c>
-      <c r="N100" t="s">
-        <v>21</v>
-      </c>
-      <c r="O100" t="s">
-        <v>21</v>
-      </c>
-      <c r="P100" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>21</v>
-      </c>
-      <c r="R100" t="s">
-        <v>21</v>
-      </c>
-      <c r="S100" t="s">
-        <v>21</v>
-      </c>
-      <c r="T100" t="s">
-        <v>21</v>
-      </c>
-      <c r="U100" t="s">
-        <v>21</v>
-      </c>
-      <c r="V100" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W100" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y100" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA100" s="7" t="str">
-        <f t="shared" ref="AA100:AA161" si="6">IF(OR(Z100=" *", Y100=Z100), "", (Z100-Y100)/Y100*100)</f>
-        <v/>
-      </c>
-      <c r="AC100" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="AD100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE100" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" t="s">
-        <v>21</v>
-      </c>
-      <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J101" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L101" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M101" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" t="s">
-        <v>21</v>
-      </c>
-      <c r="O101" t="s">
-        <v>21</v>
-      </c>
-      <c r="P101" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>21</v>
-      </c>
-      <c r="R101" t="s">
-        <v>21</v>
-      </c>
-      <c r="S101" t="s">
-        <v>21</v>
-      </c>
-      <c r="T101" t="s">
-        <v>21</v>
-      </c>
-      <c r="U101" t="s">
-        <v>21</v>
-      </c>
-      <c r="V101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W101" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y101" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA101" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC101" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="AD101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE101" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L102" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M102" t="s">
-        <v>21</v>
-      </c>
-      <c r="N102" t="s">
-        <v>21</v>
-      </c>
-      <c r="O102" t="s">
-        <v>21</v>
-      </c>
-      <c r="P102" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>21</v>
-      </c>
-      <c r="R102" t="s">
-        <v>21</v>
-      </c>
-      <c r="S102" t="s">
-        <v>21</v>
-      </c>
-      <c r="T102" t="s">
-        <v>21</v>
-      </c>
-      <c r="U102" t="s">
-        <v>21</v>
-      </c>
-      <c r="V102" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W102" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y102" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA102" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC102" s="1">
-        <v>1.19</v>
-      </c>
-      <c r="AD102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE102" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>1199804</v>
-      </c>
-      <c r="E103">
-        <v>-1</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>3828</v>
-      </c>
-      <c r="I103">
-        <v>250632</v>
-      </c>
-      <c r="J103">
-        <v>19980</v>
-      </c>
-      <c r="K103" s="1">
-        <v>0</v>
-      </c>
-      <c r="L103" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>862141</v>
-      </c>
-      <c r="N103">
-        <v>1109198.06</v>
-      </c>
-      <c r="O103">
-        <v>1.26</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
-      </c>
-      <c r="S103">
-        <v>-1</v>
-      </c>
-      <c r="T103">
-        <v>-1</v>
-      </c>
-      <c r="U103">
-        <v>-1</v>
-      </c>
-      <c r="V103" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="1">
-        <v>1199804</v>
-      </c>
-      <c r="Z103" s="1">
-        <v>862141</v>
-      </c>
-      <c r="AA103" s="7">
-        <f t="shared" si="6"/>
-        <v>-28.143180052741947</v>
-      </c>
-      <c r="AC103" s="1">
-        <v>736.38</v>
-      </c>
-      <c r="AD103" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="AE103" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.74741302045139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>1414465</v>
-      </c>
-      <c r="E104">
-        <v>-1</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>3276</v>
-      </c>
-      <c r="I104">
-        <v>250632</v>
-      </c>
-      <c r="J104">
-        <v>20340</v>
-      </c>
-      <c r="K104" s="1">
-        <v>0</v>
-      </c>
-      <c r="L104" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>980050</v>
-      </c>
-      <c r="N104">
-        <v>1304635.58</v>
-      </c>
-      <c r="O104">
-        <v>2.23</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <v>1</v>
-      </c>
-      <c r="S104">
-        <v>-1</v>
-      </c>
-      <c r="T104">
-        <v>-1</v>
-      </c>
-      <c r="U104">
-        <v>-1</v>
-      </c>
-      <c r="V104" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="1">
-        <v>1414465</v>
-      </c>
-      <c r="Z104" s="1">
-        <v>980050</v>
-      </c>
-      <c r="AA104" s="7">
-        <f t="shared" si="6"/>
-        <v>-30.712318791910718</v>
-      </c>
-      <c r="AC104" s="1">
-        <v>1800.48</v>
-      </c>
-      <c r="AD104" s="1">
-        <v>2.84</v>
-      </c>
-      <c r="AE104" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.842264285079537</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
-      <c r="H105" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" t="s">
-        <v>21</v>
-      </c>
-      <c r="J105" t="s">
-        <v>21</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L105" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M105" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" t="s">
-        <v>21</v>
-      </c>
-      <c r="O105" t="s">
-        <v>21</v>
-      </c>
-      <c r="P105" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>21</v>
-      </c>
-      <c r="R105" t="s">
-        <v>21</v>
-      </c>
-      <c r="S105" t="s">
-        <v>21</v>
-      </c>
-      <c r="T105" t="s">
-        <v>21</v>
-      </c>
-      <c r="U105" t="s">
-        <v>21</v>
-      </c>
-      <c r="V105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W105" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y105" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA105" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC105" s="1">
-        <v>5.71</v>
-      </c>
-      <c r="AD105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE105" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>1088482</v>
-      </c>
-      <c r="E106">
-        <v>-1</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>4848</v>
-      </c>
-      <c r="I106">
-        <v>250632</v>
-      </c>
-      <c r="J106">
-        <v>20520</v>
-      </c>
-      <c r="K106" s="1">
-        <v>0</v>
-      </c>
-      <c r="L106" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>904102</v>
-      </c>
-      <c r="N106">
-        <v>1013200.05</v>
-      </c>
-      <c r="O106">
-        <v>4.34</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>1</v>
-      </c>
-      <c r="R106">
-        <v>1</v>
-      </c>
-      <c r="S106">
-        <v>-1</v>
-      </c>
-      <c r="T106">
-        <v>-1</v>
-      </c>
-      <c r="U106">
-        <v>-1</v>
-      </c>
-      <c r="V106" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1088482</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>904102</v>
-      </c>
-      <c r="AA106" s="7">
-        <f t="shared" si="6"/>
-        <v>-16.93918686758256</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1800.43</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>4.93</v>
-      </c>
-      <c r="AE106" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.726176524496921</v>
-      </c>
-    </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -11287,7 +8575,7 @@
         <v>1305201</v>
       </c>
       <c r="AA107" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AA100:AA134" si="6">IF(OR(Z107=" *", Y107=Z107), "", (Z107-Y107)/Y107*100)</f>
         <v/>
       </c>
       <c r="AC107" s="1">
@@ -11301,377 +8589,9 @@
         <v>38.291569930349858</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>1001618</v>
-      </c>
-      <c r="E108">
-        <v>-1</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>3936</v>
-      </c>
-      <c r="I108">
-        <v>250632</v>
-      </c>
-      <c r="J108">
-        <v>19620</v>
-      </c>
-      <c r="K108" s="1">
-        <v>0</v>
-      </c>
-      <c r="L108" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>686324</v>
-      </c>
-      <c r="N108">
-        <v>917747.59</v>
-      </c>
-      <c r="O108">
-        <v>1.78</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>1</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <v>-1</v>
-      </c>
-      <c r="T108">
-        <v>-1</v>
-      </c>
-      <c r="U108">
-        <v>-1</v>
-      </c>
-      <c r="V108" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="1">
-        <v>1001618</v>
-      </c>
-      <c r="Z108" s="1">
-        <v>686324</v>
-      </c>
-      <c r="AA108" s="7">
-        <f t="shared" si="6"/>
-        <v>-31.478467839036441</v>
-      </c>
-      <c r="AC108" s="1">
-        <v>1800.45</v>
-      </c>
-      <c r="AD108" s="1">
-        <v>2.37</v>
-      </c>
-      <c r="AE108" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.868366241772904</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>1230350</v>
-      </c>
-      <c r="E109">
-        <v>-1</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>4032</v>
-      </c>
-      <c r="I109">
-        <v>250632</v>
-      </c>
-      <c r="J109">
-        <v>20340</v>
-      </c>
-      <c r="K109" s="1">
-        <v>725</v>
-      </c>
-      <c r="L109" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5644051130776795</v>
-      </c>
-      <c r="M109">
-        <v>1120825</v>
-      </c>
-      <c r="N109">
-        <v>1108827.07</v>
-      </c>
-      <c r="O109">
-        <v>10.7</v>
-      </c>
-      <c r="P109">
-        <v>1</v>
-      </c>
-      <c r="Q109">
-        <v>1</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>-1</v>
-      </c>
-      <c r="T109">
-        <v>1</v>
-      </c>
-      <c r="U109">
-        <v>5.83</v>
-      </c>
-      <c r="V109" s="4">
-        <v>13031</v>
-      </c>
-      <c r="W109">
-        <v>111</v>
-      </c>
-      <c r="Y109" s="1">
-        <v>1230350</v>
-      </c>
-      <c r="Z109" s="1">
-        <v>1232902</v>
-      </c>
-      <c r="AA109" s="7">
-        <f t="shared" si="6"/>
-        <v>0.20742065265981227</v>
-      </c>
-      <c r="AC109" s="1">
-        <v>1012.19</v>
-      </c>
-      <c r="AD109" s="1">
-        <v>949.14</v>
-      </c>
-      <c r="AE109" s="7">
-        <f t="shared" si="5"/>
-        <v>-6.2290676651616854</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>1741370</v>
-      </c>
-      <c r="E110">
-        <v>-1</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>4356</v>
-      </c>
-      <c r="I110">
-        <v>250632</v>
-      </c>
-      <c r="J110">
-        <v>20340</v>
-      </c>
-      <c r="K110" s="1">
-        <v>0</v>
-      </c>
-      <c r="L110" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>524059</v>
-      </c>
-      <c r="N110">
-        <v>1464300.09</v>
-      </c>
-      <c r="O110">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
-      </c>
-      <c r="S110">
-        <v>-1</v>
-      </c>
-      <c r="T110">
-        <v>-1</v>
-      </c>
-      <c r="U110">
-        <v>-1</v>
-      </c>
-      <c r="V110" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="1">
-        <v>1741370</v>
-      </c>
-      <c r="Z110" s="1">
-        <v>524059</v>
-      </c>
-      <c r="AA110" s="7">
-        <f t="shared" si="6"/>
-        <v>-69.905361870251582</v>
-      </c>
-      <c r="AC110" s="1">
-        <v>1294.04</v>
-      </c>
-      <c r="AD110" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="AE110" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.758894624586574</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>1277540</v>
-      </c>
-      <c r="E111">
-        <v>-1</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>4548</v>
-      </c>
-      <c r="I111">
-        <v>250632</v>
-      </c>
-      <c r="J111">
-        <v>19080</v>
-      </c>
-      <c r="K111" s="1">
-        <v>0</v>
-      </c>
-      <c r="L111" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>780493</v>
-      </c>
-      <c r="N111">
-        <v>1149461.21</v>
-      </c>
-      <c r="O111">
-        <v>1.17</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>1</v>
-      </c>
-      <c r="R111">
-        <v>1</v>
-      </c>
-      <c r="S111">
-        <v>-1</v>
-      </c>
-      <c r="T111">
-        <v>-1</v>
-      </c>
-      <c r="U111">
-        <v>-1</v>
-      </c>
-      <c r="V111" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="1">
-        <v>1277540</v>
-      </c>
-      <c r="Z111" s="1">
-        <v>780493</v>
-      </c>
-      <c r="AA111" s="7">
-        <f t="shared" si="6"/>
-        <v>-38.906570440064499</v>
-      </c>
-      <c r="AC111" s="1">
-        <v>1800.41</v>
-      </c>
-      <c r="AD111" s="1">
-        <v>1.76</v>
-      </c>
-      <c r="AE111" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.902244488755343</v>
-      </c>
-    </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -11763,7 +8683,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -11853,285 +8773,9 @@
         <v>18.382568002339877</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>1682671</v>
-      </c>
-      <c r="E114">
-        <v>-1</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>3072</v>
-      </c>
-      <c r="I114">
-        <v>250632</v>
-      </c>
-      <c r="J114">
-        <v>20880</v>
-      </c>
-      <c r="K114" s="1">
-        <v>0</v>
-      </c>
-      <c r="L114" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>977110</v>
-      </c>
-      <c r="N114">
-        <v>1525933.71</v>
-      </c>
-      <c r="O114">
-        <v>1.36</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <v>1</v>
-      </c>
-      <c r="S114">
-        <v>-1</v>
-      </c>
-      <c r="T114">
-        <v>-1</v>
-      </c>
-      <c r="U114">
-        <v>-1</v>
-      </c>
-      <c r="V114" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="1">
-        <v>1682671</v>
-      </c>
-      <c r="Z114" s="1">
-        <v>977110</v>
-      </c>
-      <c r="AA114" s="7">
-        <f t="shared" si="6"/>
-        <v>-41.931013252144957</v>
-      </c>
-      <c r="AC114" s="1">
-        <v>1800.43</v>
-      </c>
-      <c r="AD114" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="AE114" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.891692540115415</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>1100191</v>
-      </c>
-      <c r="E115">
-        <v>-1</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>4044</v>
-      </c>
-      <c r="I115">
-        <v>250632</v>
-      </c>
-      <c r="J115">
-        <v>21600</v>
-      </c>
-      <c r="K115" s="1">
-        <v>0</v>
-      </c>
-      <c r="L115" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>1198215</v>
-      </c>
-      <c r="N115">
-        <v>1007234.15</v>
-      </c>
-      <c r="O115">
-        <v>10.47</v>
-      </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>-1</v>
-      </c>
-      <c r="T115">
-        <v>1</v>
-      </c>
-      <c r="U115">
-        <v>5.83</v>
-      </c>
-      <c r="V115" s="4">
-        <v>14995</v>
-      </c>
-      <c r="W115">
-        <v>111</v>
-      </c>
-      <c r="Y115" s="1">
-        <v>1100191</v>
-      </c>
-      <c r="Z115" s="1">
-        <v>1092218</v>
-      </c>
-      <c r="AA115" s="7">
-        <f t="shared" si="6"/>
-        <v>-0.72469234887396816</v>
-      </c>
-      <c r="AC115" s="1">
-        <v>1025.53</v>
-      </c>
-      <c r="AD115" s="1">
-        <v>1629.55</v>
-      </c>
-      <c r="AE115" s="7">
-        <f t="shared" si="5"/>
-        <v>58.89832574376176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>1282060</v>
-      </c>
-      <c r="E116">
-        <v>-1</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>4428</v>
-      </c>
-      <c r="I116">
-        <v>250632</v>
-      </c>
-      <c r="J116">
-        <v>20880</v>
-      </c>
-      <c r="K116" s="1">
-        <v>0</v>
-      </c>
-      <c r="L116" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>562622</v>
-      </c>
-      <c r="N116">
-        <v>1120383.1200000001</v>
-      </c>
-      <c r="O116">
-        <v>3.28</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>1</v>
-      </c>
-      <c r="S116">
-        <v>-1</v>
-      </c>
-      <c r="T116">
-        <v>-1</v>
-      </c>
-      <c r="U116">
-        <v>-1</v>
-      </c>
-      <c r="V116" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="1">
-        <v>1282060</v>
-      </c>
-      <c r="Z116" s="1">
-        <v>562622</v>
-      </c>
-      <c r="AA116" s="7">
-        <f t="shared" si="6"/>
-        <v>-56.115782412679593</v>
-      </c>
-      <c r="AC116" s="1">
-        <v>1800.49</v>
-      </c>
-      <c r="AD116" s="1">
-        <v>3.88</v>
-      </c>
-      <c r="AE116" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.784503107487396</v>
-      </c>
-    </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -12221,101 +8865,9 @@
         <v>-26.071470507651963</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>1388662</v>
-      </c>
-      <c r="E118">
-        <v>-1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>4284</v>
-      </c>
-      <c r="I118">
-        <v>250632</v>
-      </c>
-      <c r="J118">
-        <v>19800</v>
-      </c>
-      <c r="K118" s="1">
-        <v>0</v>
-      </c>
-      <c r="L118" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>1003591</v>
-      </c>
-      <c r="N118">
-        <v>1275283.6100000001</v>
-      </c>
-      <c r="O118">
-        <v>1.79</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118">
-        <v>1</v>
-      </c>
-      <c r="S118">
-        <v>-1</v>
-      </c>
-      <c r="T118">
-        <v>-1</v>
-      </c>
-      <c r="U118">
-        <v>-1</v>
-      </c>
-      <c r="V118" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="Y118" s="1">
-        <v>1388662</v>
-      </c>
-      <c r="Z118" s="1">
-        <v>1003591</v>
-      </c>
-      <c r="AA118" s="7">
-        <f t="shared" si="6"/>
-        <v>-27.729641914303123</v>
-      </c>
-      <c r="AC118" s="1">
-        <v>1800.41</v>
-      </c>
-      <c r="AD118" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AE118" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.866697030120903</v>
-      </c>
-    </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -12405,101 +8957,9 @@
         <v>78.627177340156081</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>1539387</v>
-      </c>
-      <c r="E120">
-        <v>-1</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>3156</v>
-      </c>
-      <c r="I120">
-        <v>250632</v>
-      </c>
-      <c r="J120">
-        <v>20160</v>
-      </c>
-      <c r="K120" s="1">
-        <v>0</v>
-      </c>
-      <c r="L120" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>1265815</v>
-      </c>
-      <c r="N120">
-        <v>1395717.11</v>
-      </c>
-      <c r="O120">
-        <v>1.26</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
-        <v>1</v>
-      </c>
-      <c r="S120">
-        <v>-1</v>
-      </c>
-      <c r="T120">
-        <v>-1</v>
-      </c>
-      <c r="U120">
-        <v>-1</v>
-      </c>
-      <c r="V120" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-      <c r="Y120" s="1">
-        <v>1539387</v>
-      </c>
-      <c r="Z120" s="1">
-        <v>1265815</v>
-      </c>
-      <c r="AA120" s="7">
-        <f t="shared" si="6"/>
-        <v>-17.77148956045491</v>
-      </c>
-      <c r="AC120" s="1">
-        <v>1800.44</v>
-      </c>
-      <c r="AD120" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="AE120" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.896691919752953</v>
-      </c>
-    </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -12589,1113 +9049,19 @@
         <v>26.948187248228926</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" t="s">
-        <v>21</v>
-      </c>
-      <c r="I122" t="s">
-        <v>21</v>
-      </c>
-      <c r="J122" t="s">
-        <v>21</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L122" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M122" t="s">
-        <v>21</v>
-      </c>
-      <c r="N122" t="s">
-        <v>21</v>
-      </c>
-      <c r="O122" t="s">
-        <v>21</v>
-      </c>
-      <c r="P122" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>21</v>
-      </c>
-      <c r="R122" t="s">
-        <v>21</v>
-      </c>
-      <c r="S122" t="s">
-        <v>21</v>
-      </c>
-      <c r="T122" t="s">
-        <v>21</v>
-      </c>
-      <c r="U122" t="s">
-        <v>21</v>
-      </c>
-      <c r="V122" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W122" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y122" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA122" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC122" s="1">
-        <v>38.270000000000003</v>
-      </c>
-      <c r="AD122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE122" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>1700032</v>
-      </c>
-      <c r="E123">
-        <v>-1</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>3876</v>
-      </c>
-      <c r="I123">
-        <v>316944</v>
-      </c>
-      <c r="J123">
-        <v>24156</v>
-      </c>
-      <c r="K123" s="1">
-        <v>0</v>
-      </c>
-      <c r="L123" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>862141</v>
-      </c>
-      <c r="N123">
-        <v>1399329.43</v>
-      </c>
-      <c r="O123">
-        <v>4.17</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="R123">
-        <v>1</v>
-      </c>
-      <c r="S123">
-        <v>-1</v>
-      </c>
-      <c r="T123">
-        <v>-1</v>
-      </c>
-      <c r="U123">
-        <v>-1</v>
-      </c>
-      <c r="V123" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="Y123" s="1">
-        <v>1700032</v>
-      </c>
-      <c r="Z123" s="1">
-        <v>862141</v>
-      </c>
-      <c r="AA123" s="7">
-        <f t="shared" si="6"/>
-        <v>-49.286778131235174</v>
-      </c>
-      <c r="AC123" s="1">
-        <v>1800.48</v>
-      </c>
-      <c r="AD123" s="1">
-        <v>4.84</v>
-      </c>
-      <c r="AE123" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.731182795698928</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
-      <c r="H124" t="s">
-        <v>21</v>
-      </c>
-      <c r="I124" t="s">
-        <v>21</v>
-      </c>
-      <c r="J124" t="s">
-        <v>21</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L124" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M124" t="s">
-        <v>21</v>
-      </c>
-      <c r="N124" t="s">
-        <v>21</v>
-      </c>
-      <c r="O124" t="s">
-        <v>21</v>
-      </c>
-      <c r="P124" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>21</v>
-      </c>
-      <c r="R124" t="s">
-        <v>21</v>
-      </c>
-      <c r="S124" t="s">
-        <v>21</v>
-      </c>
-      <c r="T124" t="s">
-        <v>21</v>
-      </c>
-      <c r="U124" t="s">
-        <v>21</v>
-      </c>
-      <c r="V124" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W124" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y124" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA124" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC124" s="1">
-        <v>12.01</v>
-      </c>
-      <c r="AD124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE124" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>21</v>
-      </c>
-      <c r="E125" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" t="s">
-        <v>21</v>
-      </c>
-      <c r="I125" t="s">
-        <v>21</v>
-      </c>
-      <c r="J125" t="s">
-        <v>21</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L125" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M125" t="s">
-        <v>21</v>
-      </c>
-      <c r="N125" t="s">
-        <v>21</v>
-      </c>
-      <c r="O125" t="s">
-        <v>21</v>
-      </c>
-      <c r="P125" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>21</v>
-      </c>
-      <c r="R125" t="s">
-        <v>21</v>
-      </c>
-      <c r="S125" t="s">
-        <v>21</v>
-      </c>
-      <c r="T125" t="s">
-        <v>21</v>
-      </c>
-      <c r="U125" t="s">
-        <v>21</v>
-      </c>
-      <c r="V125" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W125" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y125" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA125" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC125" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="AD125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE125" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>1559361</v>
-      </c>
-      <c r="E126">
-        <v>-1</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>4548</v>
-      </c>
-      <c r="I126">
-        <v>316944</v>
-      </c>
-      <c r="J126">
-        <v>23976</v>
-      </c>
-      <c r="K126" s="1">
-        <v>0</v>
-      </c>
-      <c r="L126" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>904102</v>
-      </c>
-      <c r="N126">
-        <v>1239690.1299999999</v>
-      </c>
-      <c r="O126">
-        <v>1.58</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>1</v>
-      </c>
-      <c r="R126">
-        <v>1</v>
-      </c>
-      <c r="S126">
-        <v>-1</v>
-      </c>
-      <c r="T126">
-        <v>-1</v>
-      </c>
-      <c r="U126">
-        <v>-1</v>
-      </c>
-      <c r="V126" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-      <c r="Y126" s="1">
-        <v>1559361</v>
-      </c>
-      <c r="Z126" s="1">
-        <v>904102</v>
-      </c>
-      <c r="AA126" s="7">
-        <f t="shared" si="6"/>
-        <v>-42.020994497104901</v>
-      </c>
-      <c r="AC126" s="1">
-        <v>1379.7</v>
-      </c>
-      <c r="AD126" s="1">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AE126" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.836196274552435</v>
-      </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>1046663</v>
-      </c>
-      <c r="E127">
-        <v>-1</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>4452</v>
-      </c>
-      <c r="I127">
-        <v>316944</v>
-      </c>
-      <c r="J127">
-        <v>23796</v>
-      </c>
-      <c r="K127" s="1">
-        <v>0</v>
-      </c>
-      <c r="L127" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>1309111</v>
-      </c>
-      <c r="N127">
-        <v>991382.35</v>
-      </c>
-      <c r="O127">
-        <v>5.27</v>
-      </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
-      <c r="Q127">
-        <v>1</v>
-      </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
-      <c r="S127">
-        <v>1</v>
-      </c>
-      <c r="T127">
-        <v>-1</v>
-      </c>
-      <c r="U127">
-        <v>5.83</v>
-      </c>
-      <c r="V127" s="4">
-        <v>8359</v>
-      </c>
-      <c r="W127">
-        <v>11</v>
-      </c>
-      <c r="Y127" s="1">
-        <v>1046663</v>
-      </c>
-      <c r="Z127" s="1">
-        <v>1047188</v>
-      </c>
-      <c r="AA127" s="7">
-        <f t="shared" si="6"/>
-        <v>5.0159411386473007E-2</v>
-      </c>
-      <c r="AC127" s="1">
-        <v>1800.54</v>
-      </c>
-      <c r="AD127" s="1">
-        <v>1806.03</v>
-      </c>
-      <c r="AE127" s="7">
-        <f t="shared" si="5"/>
-        <v>0.304908527441768</v>
-      </c>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>1543466</v>
-      </c>
-      <c r="E128">
-        <v>-1</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>5688</v>
-      </c>
-      <c r="I128">
-        <v>316944</v>
-      </c>
-      <c r="J128">
-        <v>25056</v>
-      </c>
-      <c r="K128" s="1">
-        <v>0</v>
-      </c>
-      <c r="L128" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>686324</v>
-      </c>
-      <c r="N128">
-        <v>1334019.31</v>
-      </c>
-      <c r="O128">
-        <v>5.82</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>1</v>
-      </c>
-      <c r="R128">
-        <v>1</v>
-      </c>
-      <c r="S128">
-        <v>-1</v>
-      </c>
-      <c r="T128">
-        <v>-1</v>
-      </c>
-      <c r="U128">
-        <v>-1</v>
-      </c>
-      <c r="V128" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="1">
-        <v>1543466</v>
-      </c>
-      <c r="Z128" s="1">
-        <v>686324</v>
-      </c>
-      <c r="AA128" s="7">
-        <f t="shared" si="6"/>
-        <v>-55.533584801997584</v>
-      </c>
-      <c r="AC128" s="1">
-        <v>1800.57</v>
-      </c>
-      <c r="AD128" s="1">
-        <v>6.52</v>
-      </c>
-      <c r="AE128" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.637892445170138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>1267976</v>
-      </c>
-      <c r="E129">
-        <v>-1</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>5256</v>
-      </c>
-      <c r="I129">
-        <v>316944</v>
-      </c>
-      <c r="J129">
-        <v>24696</v>
-      </c>
-      <c r="K129" s="1">
-        <v>0</v>
-      </c>
-      <c r="L129" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>1120825</v>
-      </c>
-      <c r="N129">
-        <v>1141936.94</v>
-      </c>
-      <c r="O129">
-        <v>4.62</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>1</v>
-      </c>
-      <c r="R129">
-        <v>1</v>
-      </c>
-      <c r="S129">
-        <v>-1</v>
-      </c>
-      <c r="T129">
-        <v>-1</v>
-      </c>
-      <c r="U129">
-        <v>-1</v>
-      </c>
-      <c r="V129" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="1">
-        <v>1267976</v>
-      </c>
-      <c r="Z129" s="1">
-        <v>1120825</v>
-      </c>
-      <c r="AA129" s="7">
-        <f t="shared" si="6"/>
-        <v>-11.605188110815979</v>
-      </c>
-      <c r="AC129" s="1">
-        <v>1800.46</v>
-      </c>
-      <c r="AD129" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="AE129" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.705630783244288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>1428340</v>
-      </c>
-      <c r="E130">
-        <v>-1</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>5124</v>
-      </c>
-      <c r="I130">
-        <v>316944</v>
-      </c>
-      <c r="J130">
-        <v>24516</v>
-      </c>
-      <c r="K130" s="1">
-        <v>0</v>
-      </c>
-      <c r="L130" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>524059</v>
-      </c>
-      <c r="N130">
-        <v>1341051.71</v>
-      </c>
-      <c r="O130">
-        <v>2.15</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="R130">
-        <v>1</v>
-      </c>
-      <c r="S130">
-        <v>-1</v>
-      </c>
-      <c r="T130">
-        <v>-1</v>
-      </c>
-      <c r="U130">
-        <v>-1</v>
-      </c>
-      <c r="V130" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="Y130" s="1">
-        <v>1428340</v>
-      </c>
-      <c r="Z130" s="1">
-        <v>524059</v>
-      </c>
-      <c r="AA130" s="7">
-        <f t="shared" si="6"/>
-        <v>-63.309926208045709</v>
-      </c>
-      <c r="AC130" s="1">
-        <v>1800.49</v>
-      </c>
-      <c r="AD130" s="1">
-        <v>2.84</v>
-      </c>
-      <c r="AE130" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.842265161150578</v>
-      </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>1571754</v>
-      </c>
-      <c r="E131">
-        <v>-1</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>5400</v>
-      </c>
-      <c r="I131">
-        <v>316944</v>
-      </c>
-      <c r="J131">
-        <v>23616</v>
-      </c>
-      <c r="K131" s="1">
-        <v>0</v>
-      </c>
-      <c r="L131" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>780493</v>
-      </c>
-      <c r="N131">
-        <v>1408738.98</v>
-      </c>
-      <c r="O131">
-        <v>2.95</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>1</v>
-      </c>
-      <c r="R131">
-        <v>1</v>
-      </c>
-      <c r="S131">
-        <v>-1</v>
-      </c>
-      <c r="T131">
-        <v>-1</v>
-      </c>
-      <c r="U131">
-        <v>-1</v>
-      </c>
-      <c r="V131" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-      <c r="Y131" s="1">
-        <v>1571754</v>
-      </c>
-      <c r="Z131" s="1">
-        <v>780493</v>
-      </c>
-      <c r="AA131" s="7">
-        <f t="shared" si="6"/>
-        <v>-50.342547243398137</v>
-      </c>
-      <c r="AC131" s="1">
-        <v>1800.49</v>
-      </c>
-      <c r="AD131" s="1">
-        <v>3.62</v>
-      </c>
-      <c r="AE131" s="7">
-        <f t="shared" si="5"/>
-        <v>-99.798943620903202</v>
-      </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>1856018</v>
-      </c>
-      <c r="E132">
-        <v>-1</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>4332</v>
-      </c>
-      <c r="I132">
-        <v>316944</v>
-      </c>
-      <c r="J132">
-        <v>25056</v>
-      </c>
-      <c r="K132" s="1">
-        <v>0</v>
-      </c>
-      <c r="L132" s="7">
-        <f t="shared" ref="L132:L161" si="7">IF(K132=" *", "", K132/J132*100)</f>
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>1465775</v>
-      </c>
-      <c r="N132">
-        <v>1627128.03</v>
-      </c>
-      <c r="O132">
-        <v>1.36</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>1</v>
-      </c>
-      <c r="R132">
-        <v>1</v>
-      </c>
-      <c r="S132">
-        <v>-1</v>
-      </c>
-      <c r="T132">
-        <v>-1</v>
-      </c>
-      <c r="U132">
-        <v>-1</v>
-      </c>
-      <c r="V132" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="Y132" s="1">
-        <v>1856018</v>
-      </c>
-      <c r="Z132" s="1">
-        <v>1465775</v>
-      </c>
-      <c r="AA132" s="7">
-        <f t="shared" si="6"/>
-        <v>-21.025819792695977</v>
-      </c>
-      <c r="AC132" s="1">
-        <v>1458.07</v>
-      </c>
-      <c r="AD132" s="1">
-        <v>2.04</v>
-      </c>
-      <c r="AE132" s="7">
-        <f t="shared" ref="AE132:AE161" si="8">IF(OR(AD132=" *", AC132=AD132), "", (AD132-AC132)/AC132*100)</f>
-        <v>-99.860089021789079</v>
-      </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>1152633</v>
-      </c>
-      <c r="E133">
-        <v>-1</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>5724</v>
-      </c>
-      <c r="I133">
-        <v>316944</v>
-      </c>
-      <c r="J133">
-        <v>26676</v>
-      </c>
-      <c r="K133" s="1">
-        <v>0</v>
-      </c>
-      <c r="L133" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>1218077</v>
-      </c>
-      <c r="N133">
-        <v>1064339.57</v>
-      </c>
-      <c r="O133">
-        <v>6.54</v>
-      </c>
-      <c r="P133">
-        <v>1</v>
-      </c>
-      <c r="Q133">
-        <v>1</v>
-      </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-      <c r="S133">
-        <v>1</v>
-      </c>
-      <c r="T133">
-        <v>-1</v>
-      </c>
-      <c r="U133">
-        <v>5.92</v>
-      </c>
-      <c r="V133" s="4">
-        <v>6536</v>
-      </c>
-      <c r="W133">
-        <v>11</v>
-      </c>
-      <c r="Y133" s="1">
-        <v>1152633</v>
-      </c>
-      <c r="Z133" s="1">
-        <v>1149354</v>
-      </c>
-      <c r="AA133" s="7">
-        <f t="shared" si="6"/>
-        <v>-0.28447910132713533</v>
-      </c>
-      <c r="AC133" s="1">
-        <v>1800.53</v>
-      </c>
-      <c r="AD133" s="1">
-        <v>1807.34</v>
-      </c>
-      <c r="AE133" s="7">
-        <f t="shared" si="8"/>
-        <v>0.37822196797609287</v>
-      </c>
-    </row>
+    <row r="124" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -13728,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L132:L134" si="7">IF(K134=" *", "", K134/J134*100)</f>
         <v>0</v>
       </c>
       <c r="M134">
@@ -13781,2492 +9147,8 @@
         <v>546.79999999999995</v>
       </c>
       <c r="AE134" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AE132:AE134" si="8">IF(OR(AD134=" *", AC134=AD134), "", (AD134-AC134)/AC134*100)</f>
         <v>-42.317632786539384</v>
-      </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>1972337</v>
-      </c>
-      <c r="E135">
-        <v>-1</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>3660</v>
-      </c>
-      <c r="I135">
-        <v>316944</v>
-      </c>
-      <c r="J135">
-        <v>23976</v>
-      </c>
-      <c r="K135" s="1">
-        <v>0</v>
-      </c>
-      <c r="L135" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>1198215</v>
-      </c>
-      <c r="N135">
-        <v>1697303.04</v>
-      </c>
-      <c r="O135">
-        <v>2.95</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135">
-        <v>1</v>
-      </c>
-      <c r="S135">
-        <v>-1</v>
-      </c>
-      <c r="T135">
-        <v>-1</v>
-      </c>
-      <c r="U135">
-        <v>-1</v>
-      </c>
-      <c r="V135" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="1">
-        <v>1972337</v>
-      </c>
-      <c r="Z135" s="1">
-        <v>1198215</v>
-      </c>
-      <c r="AA135" s="7">
-        <f t="shared" si="6"/>
-        <v>-39.248972158409032</v>
-      </c>
-      <c r="AC135" s="1">
-        <v>1800.49</v>
-      </c>
-      <c r="AD135" s="1">
-        <v>3.63</v>
-      </c>
-      <c r="AE135" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.798388216541042</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>1542435</v>
-      </c>
-      <c r="E136">
-        <v>-1</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>4260</v>
-      </c>
-      <c r="I136">
-        <v>316944</v>
-      </c>
-      <c r="J136">
-        <v>23436</v>
-      </c>
-      <c r="K136" s="1">
-        <v>0</v>
-      </c>
-      <c r="L136" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>562622</v>
-      </c>
-      <c r="N136">
-        <v>1165447.04</v>
-      </c>
-      <c r="O136">
-        <v>7.57</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>1</v>
-      </c>
-      <c r="R136">
-        <v>1</v>
-      </c>
-      <c r="S136">
-        <v>-1</v>
-      </c>
-      <c r="T136">
-        <v>-1</v>
-      </c>
-      <c r="U136">
-        <v>-1</v>
-      </c>
-      <c r="V136" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="1">
-        <v>1542435</v>
-      </c>
-      <c r="Z136" s="1">
-        <v>562622</v>
-      </c>
-      <c r="AA136" s="7">
-        <f t="shared" si="6"/>
-        <v>-63.523778959891345</v>
-      </c>
-      <c r="AC136" s="1">
-        <v>1800.45</v>
-      </c>
-      <c r="AD136" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="AE136" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.54344747146547</v>
-      </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>1526225</v>
-      </c>
-      <c r="E137">
-        <v>-1</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>5208</v>
-      </c>
-      <c r="I137">
-        <v>316944</v>
-      </c>
-      <c r="J137">
-        <v>24696</v>
-      </c>
-      <c r="K137" s="1">
-        <v>0</v>
-      </c>
-      <c r="L137" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>1591547</v>
-      </c>
-      <c r="N137">
-        <v>1353475.87</v>
-      </c>
-      <c r="O137">
-        <v>16.5</v>
-      </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="S137">
-        <v>1</v>
-      </c>
-      <c r="T137">
-        <v>-1</v>
-      </c>
-      <c r="U137">
-        <v>5.75</v>
-      </c>
-      <c r="V137" s="4">
-        <v>13283</v>
-      </c>
-      <c r="W137">
-        <v>11</v>
-      </c>
-      <c r="Y137" s="1">
-        <v>1526225</v>
-      </c>
-      <c r="Z137" s="1">
-        <v>1565275</v>
-      </c>
-      <c r="AA137" s="7">
-        <f t="shared" si="6"/>
-        <v>2.5586004684761421</v>
-      </c>
-      <c r="AC137" s="1">
-        <v>1800.54</v>
-      </c>
-      <c r="AD137" s="1">
-        <v>1817.26</v>
-      </c>
-      <c r="AE137" s="7">
-        <f t="shared" si="8"/>
-        <v>0.92861030579715131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>1220383</v>
-      </c>
-      <c r="E138">
-        <v>-1</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>5376</v>
-      </c>
-      <c r="I138">
-        <v>316944</v>
-      </c>
-      <c r="J138">
-        <v>23976</v>
-      </c>
-      <c r="K138" s="1">
-        <v>0</v>
-      </c>
-      <c r="L138" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>1003591</v>
-      </c>
-      <c r="N138">
-        <v>1136671.1200000001</v>
-      </c>
-      <c r="O138">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-      <c r="R138">
-        <v>1</v>
-      </c>
-      <c r="S138">
-        <v>-1</v>
-      </c>
-      <c r="T138">
-        <v>-1</v>
-      </c>
-      <c r="U138">
-        <v>-1</v>
-      </c>
-      <c r="V138" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-      <c r="Y138" s="1">
-        <v>1220383</v>
-      </c>
-      <c r="Z138" s="1">
-        <v>1003591</v>
-      </c>
-      <c r="AA138" s="7">
-        <f t="shared" si="6"/>
-        <v>-17.764259253037775</v>
-      </c>
-      <c r="AC138" s="1">
-        <v>1800.62</v>
-      </c>
-      <c r="AD138" s="1">
-        <v>2.98</v>
-      </c>
-      <c r="AE138" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.834501449500721</v>
-      </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>1160069</v>
-      </c>
-      <c r="E139">
-        <v>-1</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>5280</v>
-      </c>
-      <c r="I139">
-        <v>316944</v>
-      </c>
-      <c r="J139">
-        <v>23076</v>
-      </c>
-      <c r="K139" s="1">
-        <v>0</v>
-      </c>
-      <c r="L139" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>1108512</v>
-      </c>
-      <c r="N139">
-        <v>1069764.21</v>
-      </c>
-      <c r="O139">
-        <v>9.1</v>
-      </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>1</v>
-      </c>
-      <c r="T139">
-        <v>-1</v>
-      </c>
-      <c r="U139">
-        <v>6</v>
-      </c>
-      <c r="V139" s="4">
-        <v>7398</v>
-      </c>
-      <c r="W139">
-        <v>11</v>
-      </c>
-      <c r="Y139" s="1">
-        <v>1160069</v>
-      </c>
-      <c r="Z139" s="1">
-        <v>1171473</v>
-      </c>
-      <c r="AA139" s="7">
-        <f t="shared" si="6"/>
-        <v>0.98304497404895741</v>
-      </c>
-      <c r="AC139" s="1">
-        <v>1800.54</v>
-      </c>
-      <c r="AD139" s="1">
-        <v>1809.88</v>
-      </c>
-      <c r="AE139" s="7">
-        <f t="shared" si="8"/>
-        <v>0.51873326890822458</v>
-      </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>1240038</v>
-      </c>
-      <c r="E140">
-        <v>-1</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>4764</v>
-      </c>
-      <c r="I140">
-        <v>316944</v>
-      </c>
-      <c r="J140">
-        <v>22716</v>
-      </c>
-      <c r="K140" s="1">
-        <v>0</v>
-      </c>
-      <c r="L140" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>1265815</v>
-      </c>
-      <c r="N140">
-        <v>1153376.78</v>
-      </c>
-      <c r="O140">
-        <v>4.67</v>
-      </c>
-      <c r="P140">
-        <v>1</v>
-      </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-      <c r="S140">
-        <v>1</v>
-      </c>
-      <c r="T140">
-        <v>-1</v>
-      </c>
-      <c r="U140">
-        <v>5.92</v>
-      </c>
-      <c r="V140" s="4">
-        <v>16342</v>
-      </c>
-      <c r="W140">
-        <v>11</v>
-      </c>
-      <c r="Y140" s="1">
-        <v>1240038</v>
-      </c>
-      <c r="Z140" s="1">
-        <v>1240052</v>
-      </c>
-      <c r="AA140" s="7">
-        <f t="shared" si="6"/>
-        <v>1.1289976597491367E-3</v>
-      </c>
-      <c r="AC140" s="1">
-        <v>1800.51</v>
-      </c>
-      <c r="AD140" s="1">
-        <v>1805.42</v>
-      </c>
-      <c r="AE140" s="7">
-        <f t="shared" si="8"/>
-        <v>0.27270051263253647</v>
-      </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141" t="s">
-        <v>21</v>
-      </c>
-      <c r="E141" t="s">
-        <v>21</v>
-      </c>
-      <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>21</v>
-      </c>
-      <c r="H141" t="s">
-        <v>21</v>
-      </c>
-      <c r="I141" t="s">
-        <v>21</v>
-      </c>
-      <c r="J141" t="s">
-        <v>21</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L141" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M141" t="s">
-        <v>21</v>
-      </c>
-      <c r="N141" t="s">
-        <v>21</v>
-      </c>
-      <c r="O141" t="s">
-        <v>21</v>
-      </c>
-      <c r="P141" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>21</v>
-      </c>
-      <c r="R141" t="s">
-        <v>21</v>
-      </c>
-      <c r="S141" t="s">
-        <v>21</v>
-      </c>
-      <c r="T141" t="s">
-        <v>21</v>
-      </c>
-      <c r="U141" t="s">
-        <v>21</v>
-      </c>
-      <c r="V141" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W141" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y141" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z141" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA141" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC141" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="AD141" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE141" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>21</v>
-      </c>
-      <c r="E142" t="s">
-        <v>21</v>
-      </c>
-      <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
-      <c r="H142" t="s">
-        <v>21</v>
-      </c>
-      <c r="I142" t="s">
-        <v>21</v>
-      </c>
-      <c r="J142" t="s">
-        <v>21</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L142" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M142" t="s">
-        <v>21</v>
-      </c>
-      <c r="N142" t="s">
-        <v>21</v>
-      </c>
-      <c r="O142" t="s">
-        <v>21</v>
-      </c>
-      <c r="P142" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>21</v>
-      </c>
-      <c r="R142" t="s">
-        <v>21</v>
-      </c>
-      <c r="S142" t="s">
-        <v>21</v>
-      </c>
-      <c r="T142" t="s">
-        <v>21</v>
-      </c>
-      <c r="U142" t="s">
-        <v>21</v>
-      </c>
-      <c r="V142" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W142" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y142" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z142" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA142" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC142" s="1">
-        <v>1801.13</v>
-      </c>
-      <c r="AD142" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE142" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>1551279</v>
-      </c>
-      <c r="E143">
-        <v>-1</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>6924</v>
-      </c>
-      <c r="I143">
-        <v>694176</v>
-      </c>
-      <c r="J143">
-        <v>52032</v>
-      </c>
-      <c r="K143" s="1">
-        <v>0</v>
-      </c>
-      <c r="L143" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>862141</v>
-      </c>
-      <c r="N143">
-        <v>1295613.78</v>
-      </c>
-      <c r="O143">
-        <v>3.31</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>1</v>
-      </c>
-      <c r="R143">
-        <v>1</v>
-      </c>
-      <c r="S143">
-        <v>-1</v>
-      </c>
-      <c r="T143">
-        <v>-1</v>
-      </c>
-      <c r="U143">
-        <v>-1</v>
-      </c>
-      <c r="V143" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="Y143" s="1">
-        <v>1551279</v>
-      </c>
-      <c r="Z143" s="1">
-        <v>862141</v>
-      </c>
-      <c r="AA143" s="7">
-        <f t="shared" si="6"/>
-        <v>-44.423859279987674</v>
-      </c>
-      <c r="AC143" s="1">
-        <v>1801.15</v>
-      </c>
-      <c r="AD143" s="1">
-        <v>4.93</v>
-      </c>
-      <c r="AE143" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.726285983954682</v>
-      </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>2152322</v>
-      </c>
-      <c r="E144">
-        <v>-1</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>8064</v>
-      </c>
-      <c r="I144">
-        <v>694176</v>
-      </c>
-      <c r="J144">
-        <v>51360</v>
-      </c>
-      <c r="K144" s="1">
-        <v>0</v>
-      </c>
-      <c r="L144" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>980050</v>
-      </c>
-      <c r="N144">
-        <v>1569962.98</v>
-      </c>
-      <c r="O144">
-        <v>4.3</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>1</v>
-      </c>
-      <c r="R144">
-        <v>1</v>
-      </c>
-      <c r="S144">
-        <v>-1</v>
-      </c>
-      <c r="T144">
-        <v>-1</v>
-      </c>
-      <c r="U144">
-        <v>-1</v>
-      </c>
-      <c r="V144" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="Y144" s="1">
-        <v>2152322</v>
-      </c>
-      <c r="Z144" s="1">
-        <v>980050</v>
-      </c>
-      <c r="AA144" s="7">
-        <f t="shared" si="6"/>
-        <v>-54.465456376880404</v>
-      </c>
-      <c r="AC144" s="1">
-        <v>1801.13</v>
-      </c>
-      <c r="AD144" s="1">
-        <v>5.93</v>
-      </c>
-      <c r="AE144" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.670762243702555</v>
-      </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>1576540</v>
-      </c>
-      <c r="E145">
-        <v>-1</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>7488</v>
-      </c>
-      <c r="I145">
-        <v>694176</v>
-      </c>
-      <c r="J145">
-        <v>53712</v>
-      </c>
-      <c r="K145" s="1">
-        <v>0</v>
-      </c>
-      <c r="L145" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>948898</v>
-      </c>
-      <c r="N145">
-        <v>1294742.25</v>
-      </c>
-      <c r="O145">
-        <v>44.34</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145">
-        <v>1</v>
-      </c>
-      <c r="S145">
-        <v>-1</v>
-      </c>
-      <c r="T145">
-        <v>-1</v>
-      </c>
-      <c r="U145">
-        <v>-1</v>
-      </c>
-      <c r="V145" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="Y145" s="1">
-        <v>1576540</v>
-      </c>
-      <c r="Z145" s="1">
-        <v>948898</v>
-      </c>
-      <c r="AA145" s="7">
-        <f t="shared" si="6"/>
-        <v>-39.811359052101437</v>
-      </c>
-      <c r="AC145" s="1">
-        <v>1801.15</v>
-      </c>
-      <c r="AD145" s="1">
-        <v>45.99</v>
-      </c>
-      <c r="AE145" s="7">
-        <f t="shared" si="8"/>
-        <v>-97.446631318879611</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>1834425</v>
-      </c>
-      <c r="E146">
-        <v>-1</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>7368</v>
-      </c>
-      <c r="I146">
-        <v>694176</v>
-      </c>
-      <c r="J146">
-        <v>52368</v>
-      </c>
-      <c r="K146" s="1">
-        <v>0</v>
-      </c>
-      <c r="L146" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>904102</v>
-      </c>
-      <c r="N146">
-        <v>1295934.3600000001</v>
-      </c>
-      <c r="O146">
-        <v>3.67</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
-      <c r="R146">
-        <v>1</v>
-      </c>
-      <c r="S146">
-        <v>-1</v>
-      </c>
-      <c r="T146">
-        <v>-1</v>
-      </c>
-      <c r="U146">
-        <v>-1</v>
-      </c>
-      <c r="V146" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="Y146" s="1">
-        <v>1834425</v>
-      </c>
-      <c r="Z146" s="1">
-        <v>904102</v>
-      </c>
-      <c r="AA146" s="7">
-        <f t="shared" si="6"/>
-        <v>-50.714692614852062</v>
-      </c>
-      <c r="AC146" s="1">
-        <v>1801.17</v>
-      </c>
-      <c r="AD146" s="1">
-        <v>5.27</v>
-      </c>
-      <c r="AE146" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.707412404159527</v>
-      </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>1900940</v>
-      </c>
-      <c r="E147">
-        <v>-1</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>5700</v>
-      </c>
-      <c r="I147">
-        <v>694176</v>
-      </c>
-      <c r="J147">
-        <v>54048</v>
-      </c>
-      <c r="K147" s="1">
-        <v>0</v>
-      </c>
-      <c r="L147" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>1309111</v>
-      </c>
-      <c r="N147">
-        <v>1428937.79</v>
-      </c>
-      <c r="O147">
-        <v>4.28</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>1</v>
-      </c>
-      <c r="R147">
-        <v>1</v>
-      </c>
-      <c r="S147">
-        <v>-1</v>
-      </c>
-      <c r="T147">
-        <v>-1</v>
-      </c>
-      <c r="U147">
-        <v>-1</v>
-      </c>
-      <c r="V147" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="Y147" s="1">
-        <v>1900940</v>
-      </c>
-      <c r="Z147" s="1">
-        <v>1309111</v>
-      </c>
-      <c r="AA147" s="7">
-        <f t="shared" si="6"/>
-        <v>-31.133491851399835</v>
-      </c>
-      <c r="AC147" s="1">
-        <v>1801.21</v>
-      </c>
-      <c r="AD147" s="1">
-        <v>5.94</v>
-      </c>
-      <c r="AE147" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.67022168431221</v>
-      </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>1583220</v>
-      </c>
-      <c r="E148">
-        <v>-1</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>7188</v>
-      </c>
-      <c r="I148">
-        <v>694176</v>
-      </c>
-      <c r="J148">
-        <v>51360</v>
-      </c>
-      <c r="K148" s="1">
-        <v>0</v>
-      </c>
-      <c r="L148" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>686324</v>
-      </c>
-      <c r="N148">
-        <v>1131326.1200000001</v>
-      </c>
-      <c r="O148">
-        <v>4.87</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>1</v>
-      </c>
-      <c r="R148">
-        <v>1</v>
-      </c>
-      <c r="S148">
-        <v>-1</v>
-      </c>
-      <c r="T148">
-        <v>-1</v>
-      </c>
-      <c r="U148">
-        <v>-1</v>
-      </c>
-      <c r="V148" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="Y148" s="1">
-        <v>1583220</v>
-      </c>
-      <c r="Z148" s="1">
-        <v>686324</v>
-      </c>
-      <c r="AA148" s="7">
-        <f t="shared" si="6"/>
-        <v>-56.650118113717618</v>
-      </c>
-      <c r="AC148" s="1">
-        <v>1801.16</v>
-      </c>
-      <c r="AD148" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="AE148" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.641342246108067</v>
-      </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>21</v>
-      </c>
-      <c r="E149" t="s">
-        <v>21</v>
-      </c>
-      <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" t="s">
-        <v>21</v>
-      </c>
-      <c r="I149" t="s">
-        <v>21</v>
-      </c>
-      <c r="J149" t="s">
-        <v>21</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L149" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M149" t="s">
-        <v>21</v>
-      </c>
-      <c r="N149" t="s">
-        <v>21</v>
-      </c>
-      <c r="O149" t="s">
-        <v>21</v>
-      </c>
-      <c r="P149" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>21</v>
-      </c>
-      <c r="R149" t="s">
-        <v>21</v>
-      </c>
-      <c r="S149" t="s">
-        <v>21</v>
-      </c>
-      <c r="T149" t="s">
-        <v>21</v>
-      </c>
-      <c r="U149" t="s">
-        <v>21</v>
-      </c>
-      <c r="V149" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W149" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y149" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA149" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC149" s="1">
-        <v>6.38</v>
-      </c>
-      <c r="AD149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE149" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>1332245</v>
-      </c>
-      <c r="E150">
-        <v>-1</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>5880</v>
-      </c>
-      <c r="I150">
-        <v>694176</v>
-      </c>
-      <c r="J150">
-        <v>51696</v>
-      </c>
-      <c r="K150" s="1">
-        <v>0</v>
-      </c>
-      <c r="L150" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>524059</v>
-      </c>
-      <c r="N150">
-        <v>1170931.8899999999</v>
-      </c>
-      <c r="O150">
-        <v>3</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>1</v>
-      </c>
-      <c r="R150">
-        <v>1</v>
-      </c>
-      <c r="S150">
-        <v>-1</v>
-      </c>
-      <c r="T150">
-        <v>-1</v>
-      </c>
-      <c r="U150">
-        <v>-1</v>
-      </c>
-      <c r="V150" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="Y150" s="1">
-        <v>1332245</v>
-      </c>
-      <c r="Z150" s="1">
-        <v>524059</v>
-      </c>
-      <c r="AA150" s="7">
-        <f t="shared" si="6"/>
-        <v>-60.663466554575173</v>
-      </c>
-      <c r="AC150" s="1">
-        <v>1801.19</v>
-      </c>
-      <c r="AD150" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AE150" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.744613283440401</v>
-      </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>1989953</v>
-      </c>
-      <c r="E151">
-        <v>-1</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>7044</v>
-      </c>
-      <c r="I151">
-        <v>694176</v>
-      </c>
-      <c r="J151">
-        <v>54048</v>
-      </c>
-      <c r="K151" s="1">
-        <v>0</v>
-      </c>
-      <c r="L151" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>780493</v>
-      </c>
-      <c r="N151">
-        <v>1413015.37</v>
-      </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>1</v>
-      </c>
-      <c r="R151">
-        <v>1</v>
-      </c>
-      <c r="S151">
-        <v>-1</v>
-      </c>
-      <c r="T151">
-        <v>-1</v>
-      </c>
-      <c r="U151">
-        <v>-1</v>
-      </c>
-      <c r="V151" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="Y151" s="1">
-        <v>1989953</v>
-      </c>
-      <c r="Z151" s="1">
-        <v>780493</v>
-      </c>
-      <c r="AA151" s="7">
-        <f t="shared" si="6"/>
-        <v>-60.77831988996725</v>
-      </c>
-      <c r="AC151" s="1">
-        <v>1801.13</v>
-      </c>
-      <c r="AD151" s="1">
-        <v>5.15</v>
-      </c>
-      <c r="AE151" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.714068390399362</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>1935227</v>
-      </c>
-      <c r="E152">
-        <v>-1</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>8424</v>
-      </c>
-      <c r="I152">
-        <v>694176</v>
-      </c>
-      <c r="J152">
-        <v>50016</v>
-      </c>
-      <c r="K152" s="1">
-        <v>0</v>
-      </c>
-      <c r="L152" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>1465775</v>
-      </c>
-      <c r="N152">
-        <v>1523045.23</v>
-      </c>
-      <c r="O152">
-        <v>4.46</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <v>1</v>
-      </c>
-      <c r="R152">
-        <v>1</v>
-      </c>
-      <c r="S152">
-        <v>-1</v>
-      </c>
-      <c r="T152">
-        <v>-1</v>
-      </c>
-      <c r="U152">
-        <v>-1</v>
-      </c>
-      <c r="V152" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="Y152" s="1">
-        <v>1935227</v>
-      </c>
-      <c r="Z152" s="1">
-        <v>1465775</v>
-      </c>
-      <c r="AA152" s="7">
-        <f t="shared" si="6"/>
-        <v>-24.258239472682018</v>
-      </c>
-      <c r="AC152" s="1">
-        <v>1801.1</v>
-      </c>
-      <c r="AD152" s="1">
-        <v>6.05</v>
-      </c>
-      <c r="AE152" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.664094164677138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>1614851</v>
-      </c>
-      <c r="E153">
-        <v>-1</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>7488</v>
-      </c>
-      <c r="I153">
-        <v>694176</v>
-      </c>
-      <c r="J153">
-        <v>53376</v>
-      </c>
-      <c r="K153" s="1">
-        <v>0</v>
-      </c>
-      <c r="L153" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>1218077</v>
-      </c>
-      <c r="N153">
-        <v>1304373.04</v>
-      </c>
-      <c r="O153">
-        <v>3.48</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <v>1</v>
-      </c>
-      <c r="R153">
-        <v>1</v>
-      </c>
-      <c r="S153">
-        <v>-1</v>
-      </c>
-      <c r="T153">
-        <v>-1</v>
-      </c>
-      <c r="U153">
-        <v>-1</v>
-      </c>
-      <c r="V153" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="Y153" s="1">
-        <v>1614851</v>
-      </c>
-      <c r="Z153" s="1">
-        <v>1218077</v>
-      </c>
-      <c r="AA153" s="7">
-        <f t="shared" si="6"/>
-        <v>-24.570316394515654</v>
-      </c>
-      <c r="AC153" s="1">
-        <v>1801.18</v>
-      </c>
-      <c r="AD153" s="1">
-        <v>5.12</v>
-      </c>
-      <c r="AE153" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.715741902530581</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>1838012</v>
-      </c>
-      <c r="E154">
-        <v>-1</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>5868</v>
-      </c>
-      <c r="I154">
-        <v>694176</v>
-      </c>
-      <c r="J154">
-        <v>49344</v>
-      </c>
-      <c r="K154" s="1">
-        <v>0</v>
-      </c>
-      <c r="L154" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>1242888</v>
-      </c>
-      <c r="N154">
-        <v>1405362.31</v>
-      </c>
-      <c r="O154">
-        <v>4.38</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
-        <v>1</v>
-      </c>
-      <c r="R154">
-        <v>1</v>
-      </c>
-      <c r="S154">
-        <v>-1</v>
-      </c>
-      <c r="T154">
-        <v>-1</v>
-      </c>
-      <c r="U154">
-        <v>-1</v>
-      </c>
-      <c r="V154" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="Y154" s="1">
-        <v>1838012</v>
-      </c>
-      <c r="Z154" s="1">
-        <v>1242888</v>
-      </c>
-      <c r="AA154" s="7">
-        <f t="shared" si="6"/>
-        <v>-32.378678702859389</v>
-      </c>
-      <c r="AC154" s="1">
-        <v>1801.16</v>
-      </c>
-      <c r="AD154" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="AE154" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.667436540895864</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>1584592</v>
-      </c>
-      <c r="E155">
-        <v>-1</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>6804</v>
-      </c>
-      <c r="I155">
-        <v>694176</v>
-      </c>
-      <c r="J155">
-        <v>52032</v>
-      </c>
-      <c r="K155" s="1">
-        <v>0</v>
-      </c>
-      <c r="L155" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>1198215</v>
-      </c>
-      <c r="N155">
-        <v>1250957.94</v>
-      </c>
-      <c r="O155">
-        <v>4.12</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>1</v>
-      </c>
-      <c r="R155">
-        <v>1</v>
-      </c>
-      <c r="S155">
-        <v>-1</v>
-      </c>
-      <c r="T155">
-        <v>-1</v>
-      </c>
-      <c r="U155">
-        <v>-1</v>
-      </c>
-      <c r="V155" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="Y155" s="1">
-        <v>1584592</v>
-      </c>
-      <c r="Z155" s="1">
-        <v>1198215</v>
-      </c>
-      <c r="AA155" s="7">
-        <f t="shared" si="6"/>
-        <v>-24.383374395427971</v>
-      </c>
-      <c r="AC155" s="1">
-        <v>1801.15</v>
-      </c>
-      <c r="AD155" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="AE155" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.682425117286172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>2055045</v>
-      </c>
-      <c r="E156">
-        <v>-1</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>6312</v>
-      </c>
-      <c r="I156">
-        <v>694176</v>
-      </c>
-      <c r="J156">
-        <v>54048</v>
-      </c>
-      <c r="K156" s="1">
-        <v>0</v>
-      </c>
-      <c r="L156" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>562622</v>
-      </c>
-      <c r="N156">
-        <v>1493306.46</v>
-      </c>
-      <c r="O156">
-        <v>3.87</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="Q156">
-        <v>1</v>
-      </c>
-      <c r="R156">
-        <v>1</v>
-      </c>
-      <c r="S156">
-        <v>-1</v>
-      </c>
-      <c r="T156">
-        <v>-1</v>
-      </c>
-      <c r="U156">
-        <v>-1</v>
-      </c>
-      <c r="V156" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="Y156" s="1">
-        <v>2055045</v>
-      </c>
-      <c r="Z156" s="1">
-        <v>562622</v>
-      </c>
-      <c r="AA156" s="7">
-        <f t="shared" si="6"/>
-        <v>-72.622399996107148</v>
-      </c>
-      <c r="AC156" s="1">
-        <v>1801.13</v>
-      </c>
-      <c r="AD156" s="1">
-        <v>5.52</v>
-      </c>
-      <c r="AE156" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.693525731068831</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>1671465</v>
-      </c>
-      <c r="E157">
-        <v>-1</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>6564</v>
-      </c>
-      <c r="I157">
-        <v>694176</v>
-      </c>
-      <c r="J157">
-        <v>47664</v>
-      </c>
-      <c r="K157" s="1">
-        <v>0</v>
-      </c>
-      <c r="L157" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>1591547</v>
-      </c>
-      <c r="N157">
-        <v>1038072.79</v>
-      </c>
-      <c r="O157">
-        <v>28.58</v>
-      </c>
-      <c r="P157">
-        <v>1</v>
-      </c>
-      <c r="Q157">
-        <v>1</v>
-      </c>
-      <c r="R157">
-        <v>0</v>
-      </c>
-      <c r="S157">
-        <v>1</v>
-      </c>
-      <c r="T157">
-        <v>-1</v>
-      </c>
-      <c r="U157">
-        <v>6.67</v>
-      </c>
-      <c r="V157" s="4">
-        <v>539</v>
-      </c>
-      <c r="W157">
-        <v>11</v>
-      </c>
-      <c r="Y157" s="1">
-        <v>1671465</v>
-      </c>
-      <c r="Z157" s="1">
-        <v>1698181</v>
-      </c>
-      <c r="AA157" s="7">
-        <f t="shared" si="6"/>
-        <v>1.5983583263783567</v>
-      </c>
-      <c r="AC157" s="1">
-        <v>1801.13</v>
-      </c>
-      <c r="AD157" s="1">
-        <v>1830.32</v>
-      </c>
-      <c r="AE157" s="7">
-        <f t="shared" si="8"/>
-        <v>1.6206492590762369</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>21</v>
-      </c>
-      <c r="E158" t="s">
-        <v>21</v>
-      </c>
-      <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
-      <c r="H158" t="s">
-        <v>21</v>
-      </c>
-      <c r="I158" t="s">
-        <v>21</v>
-      </c>
-      <c r="J158" t="s">
-        <v>21</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L158" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M158" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" t="s">
-        <v>21</v>
-      </c>
-      <c r="O158" t="s">
-        <v>21</v>
-      </c>
-      <c r="P158" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>21</v>
-      </c>
-      <c r="R158" t="s">
-        <v>21</v>
-      </c>
-      <c r="S158" t="s">
-        <v>21</v>
-      </c>
-      <c r="T158" t="s">
-        <v>21</v>
-      </c>
-      <c r="U158" t="s">
-        <v>21</v>
-      </c>
-      <c r="V158" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W158" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y158" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="Z158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA158" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC158" s="1">
-        <v>195.67</v>
-      </c>
-      <c r="AD158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE158" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>1415278</v>
-      </c>
-      <c r="E159">
-        <v>-1</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>8820</v>
-      </c>
-      <c r="I159">
-        <v>694176</v>
-      </c>
-      <c r="J159">
-        <v>52368</v>
-      </c>
-      <c r="K159" s="1">
-        <v>0</v>
-      </c>
-      <c r="L159" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>1108512</v>
-      </c>
-      <c r="N159">
-        <v>1143834.51</v>
-      </c>
-      <c r="O159">
-        <v>4.13</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-      <c r="Q159">
-        <v>1</v>
-      </c>
-      <c r="R159">
-        <v>1</v>
-      </c>
-      <c r="S159">
-        <v>-1</v>
-      </c>
-      <c r="T159">
-        <v>-1</v>
-      </c>
-      <c r="U159">
-        <v>-1</v>
-      </c>
-      <c r="V159" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="Y159" s="1">
-        <v>1415278</v>
-      </c>
-      <c r="Z159" s="1">
-        <v>1108512</v>
-      </c>
-      <c r="AA159" s="7">
-        <f t="shared" si="6"/>
-        <v>-21.675317499459471</v>
-      </c>
-      <c r="AC159" s="1">
-        <v>1801.15</v>
-      </c>
-      <c r="AD159" s="1">
-        <v>5.77</v>
-      </c>
-      <c r="AE159" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.679649113066645</v>
-      </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>1509125</v>
-      </c>
-      <c r="E160">
-        <v>-1</v>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>7368</v>
-      </c>
-      <c r="I160">
-        <v>694176</v>
-      </c>
-      <c r="J160">
-        <v>52032</v>
-      </c>
-      <c r="K160" s="1">
-        <v>0</v>
-      </c>
-      <c r="L160" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>1265815</v>
-      </c>
-      <c r="N160">
-        <v>1266769.1599999999</v>
-      </c>
-      <c r="O160">
-        <v>3.92</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="Q160">
-        <v>1</v>
-      </c>
-      <c r="R160">
-        <v>1</v>
-      </c>
-      <c r="S160">
-        <v>-1</v>
-      </c>
-      <c r="T160">
-        <v>-1</v>
-      </c>
-      <c r="U160">
-        <v>-1</v>
-      </c>
-      <c r="V160" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="Y160" s="1">
-        <v>1509125</v>
-      </c>
-      <c r="Z160" s="1">
-        <v>1265815</v>
-      </c>
-      <c r="AA160" s="7">
-        <f t="shared" si="6"/>
-        <v>-16.12258759214777</v>
-      </c>
-      <c r="AC160" s="1">
-        <v>1801.16</v>
-      </c>
-      <c r="AD160" s="1">
-        <v>5.55</v>
-      </c>
-      <c r="AE160" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.691865242399345</v>
-      </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>1863881</v>
-      </c>
-      <c r="E161">
-        <v>-1</v>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>4236</v>
-      </c>
-      <c r="I161">
-        <v>694176</v>
-      </c>
-      <c r="J161">
-        <v>49344</v>
-      </c>
-      <c r="K161" s="1">
-        <v>0</v>
-      </c>
-      <c r="L161" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <v>1458148</v>
-      </c>
-      <c r="N161">
-        <v>1621797.09</v>
-      </c>
-      <c r="O161">
-        <v>4.37</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-      <c r="Q161">
-        <v>1</v>
-      </c>
-      <c r="R161">
-        <v>1</v>
-      </c>
-      <c r="S161">
-        <v>-1</v>
-      </c>
-      <c r="T161">
-        <v>-1</v>
-      </c>
-      <c r="U161">
-        <v>-1</v>
-      </c>
-      <c r="V161" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="Y161" s="1">
-        <v>1863881</v>
-      </c>
-      <c r="Z161" s="1">
-        <v>1458148</v>
-      </c>
-      <c r="AA161" s="7">
-        <f t="shared" si="6"/>
-        <v>-21.768181552363053</v>
-      </c>
-      <c r="AC161" s="1">
-        <v>1801.13</v>
-      </c>
-      <c r="AD161" s="1">
-        <v>6.01</v>
-      </c>
-      <c r="AE161" s="7">
-        <f t="shared" si="8"/>
-        <v>-99.666320587631091</v>
       </c>
     </row>
   </sheetData>

--- a/Others/TestCuts/TestCut2MIP/pre_cut2_analysis.xlsx
+++ b/Others/TestCuts/TestCut2MIP/pre_cut2_analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
   <si>
     <t>Sc(N/M)</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>TimeDev%</t>
+  </si>
+  <si>
+    <t>Cut2_Moretime</t>
   </si>
 </sst>
 </file>
@@ -990,59 +993,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14497050" y="180975"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4376677" cy="436786"/>
     <xdr:sp macro="" textlink="">
@@ -1052,7 +1006,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14135100" y="76200"/>
+          <a:off x="13515975" y="295275"/>
           <a:ext cx="4376677" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1363,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1378,9 @@
       <c r="O1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
     </row>
@@ -1480,7 +1436,10 @@
         <f>IF( OR(M3=0, N3=""), "", (N3-M3)/M3*100)</f>
         <v/>
       </c>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="18" t="str">
+        <f>IF( AND(I3&gt;J3, N3&lt;M3), "ici", "")</f>
+        <v/>
+      </c>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
@@ -1527,7 +1486,10 @@
         <f t="shared" ref="O4:O67" si="2">IF( OR(M4=0, N4=""), "", (N4-M4)/M4*100)</f>
         <v/>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="18" t="str">
+        <f t="shared" ref="Q4:Q67" si="3">IF( AND(I4&gt;J4, N4&lt;M4), "ici", "")</f>
+        <v/>
+      </c>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
     </row>
@@ -1574,7 +1536,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
     </row>
@@ -1621,6 +1586,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1665,6 +1634,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1709,6 +1682,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q8" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1753,6 +1730,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q9" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1797,6 +1778,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q10" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1841,6 +1826,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1885,6 +1874,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1929,6 +1922,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>ici</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1973,6 +1970,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q14" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2017,6 +2018,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="Q15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2061,8 +2066,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -2105,8 +2114,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I18" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2119,8 +2132,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -2163,8 +2180,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2207,8 +2228,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>102</v>
       </c>
@@ -2251,8 +2276,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2265,8 +2294,12 @@
         <f>IF( OR(M22=0, N22=""), "", (N22-M22)/M22*100)</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2279,8 +2312,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2293,8 +2330,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2307,8 +2348,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2321,8 +2366,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2365,8 +2414,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -2409,8 +2462,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2426,8 +2483,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -2470,8 +2531,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2487,8 +2552,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2531,8 +2600,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2575,8 +2648,12 @@
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
@@ -2619,8 +2696,12 @@
         <f>IF( OR(M34=0, N34=""), "", (N34-M34)/M34*100)</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2663,8 +2744,12 @@
         <f t="shared" si="2"/>
         <v>-3.225806451612903</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -2707,8 +2792,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I37" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2721,8 +2810,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
@@ -2765,8 +2858,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -2809,8 +2906,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
@@ -2853,8 +2954,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I41" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2867,8 +2972,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -2911,8 +3020,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -2955,8 +3068,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I44" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2969,8 +3086,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
@@ -3013,8 +3134,12 @@
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
@@ -3057,8 +3182,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
@@ -3101,8 +3230,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
@@ -3145,8 +3278,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
@@ -3189,8 +3326,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
@@ -3233,8 +3374,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
@@ -3277,8 +3422,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
@@ -3321,8 +3470,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
@@ -3365,8 +3518,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
@@ -3409,8 +3566,12 @@
         <f t="shared" si="2"/>
         <v>24.637681159420293</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3614,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q55" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
@@ -3541,8 +3710,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
@@ -3585,8 +3758,12 @@
         <f t="shared" si="2"/>
         <v>-22.394200626959247</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
@@ -3629,8 +3806,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
@@ -3673,8 +3854,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>103</v>
       </c>
@@ -3717,8 +3902,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q61" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>66</v>
       </c>
@@ -3761,8 +3950,12 @@
         <f t="shared" si="2"/>
         <v>59.976976208749043</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>67</v>
       </c>
@@ -3805,8 +3998,12 @@
         <f t="shared" si="2"/>
         <v>-31.217273854237977</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>68</v>
       </c>
@@ -3849,8 +4046,12 @@
         <f t="shared" si="2"/>
         <v>-20.72655589974655</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>69</v>
       </c>
@@ -3893,8 +4094,12 @@
         <f t="shared" si="2"/>
         <v>95.302013422818789</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q65" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>70</v>
       </c>
@@ -3937,8 +4142,12 @@
         <f t="shared" si="2"/>
         <v>-26.950354609929079</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q66" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>71</v>
       </c>
@@ -3981,8 +4190,12 @@
         <f t="shared" si="2"/>
         <v>6.3396952211865658</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q67" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>72</v>
       </c>
@@ -4005,14 +4218,14 @@
         <v>1.51</v>
       </c>
       <c r="I68" s="8">
-        <f t="shared" ref="I68:I121" si="3">IF(G68="", "", G68-H68)</f>
+        <f t="shared" ref="I68:I121" si="4">IF(G68="", "", G68-H68)</f>
         <v>5.13</v>
       </c>
       <c r="J68" s="8">
         <v>3.98</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" ref="K68:K121" si="4">IF(J68="", "", (I68-J68)/J68*100)</f>
+        <f t="shared" ref="K68:K121" si="5">IF(J68="", "", (I68-J68)/J68*100)</f>
         <v>28.894472361809044</v>
       </c>
       <c r="M68" s="14">
@@ -4022,11 +4235,15 @@
         <v>41</v>
       </c>
       <c r="O68" s="17">
-        <f t="shared" ref="O68:O121" si="5">IF( OR(M68=0, N68=""), "", (N68-M68)/M68*100)</f>
+        <f t="shared" ref="O68:O121" si="6">IF( OR(M68=0, N68=""), "", (N68-M68)/M68*100)</f>
         <v>-71.328671328671334</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q68" s="18" t="str">
+        <f t="shared" ref="Q68:Q121" si="7">IF( AND(I68&gt;J68, N68&lt;M68), "ici", "")</f>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
@@ -4049,14 +4266,14 @@
         <v>1.48</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5399999999999996</v>
       </c>
       <c r="J69" s="8">
         <v>2.56</v>
       </c>
       <c r="K69" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.78125000000001799</v>
       </c>
       <c r="M69" s="14">
@@ -4066,11 +4283,15 @@
         <v>0</v>
       </c>
       <c r="O69" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q69" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>74</v>
       </c>
@@ -4093,14 +4314,14 @@
         <v>0.91</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48999999999999988</v>
       </c>
       <c r="J70" s="8">
         <v>1.1200000000000001</v>
       </c>
       <c r="K70" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-56.250000000000014</v>
       </c>
       <c r="M70" s="14">
@@ -4110,11 +4331,15 @@
         <v>0</v>
       </c>
       <c r="O70" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q70" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>75</v>
       </c>
@@ -4137,14 +4362,14 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109.72000000000001</v>
       </c>
       <c r="J71" s="8">
         <v>65.47</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.588208339697601</v>
       </c>
       <c r="M71" s="14">
@@ -4154,11 +4379,15 @@
         <v>4164</v>
       </c>
       <c r="O71" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.318127044241692</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q71" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>76</v>
       </c>
@@ -4181,14 +4410,14 @@
         <v>1.94</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.32</v>
       </c>
       <c r="J72" s="8">
         <v>11.65</v>
       </c>
       <c r="K72" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.8326180257510734</v>
       </c>
       <c r="M72" s="14">
@@ -4198,11 +4427,15 @@
         <v>874</v>
       </c>
       <c r="O72" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-22.311111111111114</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q72" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>77</v>
       </c>
@@ -4225,14 +4458,14 @@
         <v>2.73</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.329999999999998</v>
       </c>
       <c r="J73" s="8">
         <v>20.58</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-25.510204081632654</v>
       </c>
       <c r="M73" s="14">
@@ -4242,11 +4475,15 @@
         <v>1334</v>
       </c>
       <c r="O73" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-57.07850707850708</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>78</v>
       </c>
@@ -4269,14 +4506,14 @@
         <v>3.15</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.540000000000003</v>
       </c>
       <c r="J74" s="8">
         <v>71.040000000000006</v>
       </c>
       <c r="K74" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-64.048423423423415</v>
       </c>
       <c r="M74" s="14">
@@ -4286,11 +4523,15 @@
         <v>2179</v>
       </c>
       <c r="O74" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-45.782532968400098</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q74" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>79</v>
       </c>
@@ -4313,14 +4554,14 @@
         <v>1.76</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.86</v>
       </c>
       <c r="J75" s="8">
         <v>10.050000000000001</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0597014925373003</v>
       </c>
       <c r="M75" s="14">
@@ -4330,11 +4571,15 @@
         <v>235</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-47.544642857142854</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q75" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>80</v>
       </c>
@@ -4357,25 +4602,29 @@
         <v>2.34</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.01</v>
       </c>
       <c r="J76" s="8">
         <v>4.95</v>
       </c>
       <c r="K76" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2121212121212042</v>
       </c>
       <c r="N76" s="15">
         <v>56</v>
       </c>
       <c r="O76" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q76" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>81</v>
       </c>
@@ -4398,14 +4647,14 @@
         <v>1.83</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.610000000000001</v>
       </c>
       <c r="J77" s="8">
         <v>16.329999999999998</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.4090630740967374</v>
       </c>
       <c r="M77" s="14">
@@ -4415,11 +4664,15 @@
         <v>604</v>
       </c>
       <c r="O77" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.251526251526254</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q77" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>82</v>
       </c>
@@ -4442,14 +4695,14 @@
         <v>3.78</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132.03</v>
       </c>
       <c r="J78" s="8">
         <v>117.55</v>
       </c>
       <c r="K78" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.318162484049344</v>
       </c>
       <c r="M78" s="14">
@@ -4459,11 +4712,15 @@
         <v>4107</v>
       </c>
       <c r="O78" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.309361438313701</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q78" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
@@ -4486,14 +4743,14 @@
         <v>1.08</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.33</v>
       </c>
       <c r="J79" s="8">
         <v>8.8000000000000007</v>
       </c>
       <c r="K79" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.47727272727272</v>
       </c>
       <c r="M79" s="14">
@@ -4503,11 +4760,15 @@
         <v>992</v>
       </c>
       <c r="O79" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-42.459396751740144</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q79" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>84</v>
       </c>
@@ -4530,14 +4791,14 @@
         <v>1.78</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7800000000000011</v>
       </c>
       <c r="J80" s="8">
         <v>9.9499999999999993</v>
       </c>
       <c r="K80" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.758793969849227</v>
       </c>
       <c r="M80" s="14">
@@ -4547,11 +4808,15 @@
         <v>274</v>
       </c>
       <c r="O80" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-46.37964774951076</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q80" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>104</v>
       </c>
@@ -4574,14 +4839,14 @@
         <v>2.59</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9399999999999995</v>
       </c>
       <c r="J81" s="8">
         <v>4.43</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.085778781038371</v>
       </c>
       <c r="M81" s="14">
@@ -4591,53 +4856,69 @@
         <v>417</v>
       </c>
       <c r="O81" s="17">
+        <f t="shared" si="6"/>
+        <v>48.928571428571423</v>
+      </c>
+      <c r="Q81" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I82" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K82" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>48.928571428571423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I82" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K82" s="9" t="str">
+        <v/>
+      </c>
+      <c r="O82" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q82" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I83" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O82" s="17" t="str">
+      <c r="K83" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I83" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K83" s="9" t="str">
+      <c r="O83" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q83" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I84" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O83" s="17" t="str">
+      <c r="K84" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I84" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K84" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="O84" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q84" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -4660,14 +4941,14 @@
         <v>0.98</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.31</v>
       </c>
       <c r="J85" s="8">
         <v>110.95</v>
       </c>
       <c r="K85" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.392519152771518</v>
       </c>
       <c r="M85" s="14">
@@ -4677,11 +4958,15 @@
         <v>2897</v>
       </c>
       <c r="O85" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.18542389687655</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q85" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
@@ -4704,14 +4989,14 @@
         <v>0.95</v>
       </c>
       <c r="I86" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.919999999999995</v>
       </c>
       <c r="J86" s="8">
         <v>23.1</v>
       </c>
       <c r="K86" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155.06493506493501</v>
       </c>
       <c r="M86" s="14">
@@ -4721,39 +5006,51 @@
         <v>7174</v>
       </c>
       <c r="O86" s="17">
+        <f t="shared" si="6"/>
+        <v>52.217271377042216</v>
+      </c>
+      <c r="Q86" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I87" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K87" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>52.217271377042216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I87" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K87" s="9" t="str">
+        <v/>
+      </c>
+      <c r="O87" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q87" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I88" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O87" s="17" t="str">
+      <c r="K88" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I88" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K88" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="O88" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q88" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -4776,14 +5073,14 @@
         <v>6.65</v>
       </c>
       <c r="I89" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>529.4</v>
       </c>
       <c r="J89" s="8">
         <v>415.19</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.507887954912203</v>
       </c>
       <c r="M89" s="14">
@@ -4793,25 +5090,33 @@
         <v>14680</v>
       </c>
       <c r="O89" s="17">
+        <f t="shared" si="6"/>
+        <v>60.297008080366886</v>
+      </c>
+      <c r="Q89" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I90" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K90" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>60.297008080366886</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I90" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K90" s="9" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O90" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q90" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -4834,14 +5139,14 @@
         <v>3.82</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>641.9799999999999</v>
       </c>
       <c r="J91" s="8">
         <v>757.19</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-15.215467716161088</v>
       </c>
       <c r="M91" s="14">
@@ -4851,11 +5156,15 @@
         <v>26336</v>
       </c>
       <c r="O91" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-60.806607634496615</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q91" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>89</v>
       </c>
@@ -4878,14 +5187,14 @@
         <v>3.59</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1800.4</v>
       </c>
       <c r="J92" s="8">
         <v>1765.22</v>
       </c>
       <c r="K92" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9929527197743091</v>
       </c>
       <c r="M92" s="14">
@@ -4895,11 +5204,15 @@
         <v>33313</v>
       </c>
       <c r="O92" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-48.864089890400024</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q92" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>90</v>
       </c>
@@ -4922,14 +5235,14 @@
         <v>1.84</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>785.6</v>
       </c>
       <c r="J93" s="8">
         <v>769.13</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1413805208482346</v>
       </c>
       <c r="M93" s="14">
@@ -4939,11 +5252,15 @@
         <v>25638</v>
       </c>
       <c r="O93" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.9888027562446169</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>91</v>
       </c>
@@ -4966,14 +5283,14 @@
         <v>1.92</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.46</v>
       </c>
       <c r="J94" s="8">
         <v>68.13</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.646704829003376</v>
       </c>
       <c r="M94" s="14">
@@ -4983,11 +5300,15 @@
         <v>1831</v>
       </c>
       <c r="O94" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-46.226138032305428</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q94" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>92</v>
       </c>
@@ -5010,14 +5331,14 @@
         <v>2.9</v>
       </c>
       <c r="I95" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1800.35</v>
       </c>
       <c r="J95" s="8">
         <v>1516.04</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.753462969314789</v>
       </c>
       <c r="M95" s="14">
@@ -5027,25 +5348,33 @@
         <v>17680</v>
       </c>
       <c r="O95" s="17">
+        <f t="shared" si="6"/>
+        <v>-11.600000000000001</v>
+      </c>
+      <c r="Q95" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I96" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K96" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>-11.600000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I96" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K96" s="9" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O96" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q96" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>93</v>
       </c>
@@ -5068,14 +5397,14 @@
         <v>2.42</v>
       </c>
       <c r="I97" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263.75</v>
       </c>
       <c r="J97" s="8">
         <v>245.98</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2241645662249017</v>
       </c>
       <c r="M97" s="14">
@@ -5085,25 +5414,33 @@
         <v>40001</v>
       </c>
       <c r="O97" s="17">
+        <f t="shared" si="6"/>
+        <v>9.0777705061082035</v>
+      </c>
+      <c r="Q97" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I98" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K98" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>9.0777705061082035</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I98" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K98" s="9" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O98" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q98" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>94</v>
       </c>
@@ -5126,14 +5463,14 @@
         <v>2.09</v>
       </c>
       <c r="I99" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>265.64000000000004</v>
       </c>
       <c r="J99" s="8">
         <v>340.2</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-21.916519694297456</v>
       </c>
       <c r="M99" s="14">
@@ -5143,109 +5480,141 @@
         <v>3071</v>
       </c>
       <c r="O99" s="17">
+        <f t="shared" si="6"/>
+        <v>-41.925113464447804</v>
+      </c>
+      <c r="Q99" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I100" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K100" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>-41.925113464447804</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I100" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K100" s="9" t="str">
+        <v/>
+      </c>
+      <c r="O100" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q100" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I101" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O100" s="17" t="str">
+      <c r="K101" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I101" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K101" s="9" t="str">
+      <c r="O101" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q101" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I102" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O101" s="17" t="str">
+      <c r="K102" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I102" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K102" s="9" t="str">
+      <c r="O102" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q102" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I103" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O102" s="17" t="str">
+      <c r="K103" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I103" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K103" s="9" t="str">
+      <c r="O103" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q103" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I104" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O103" s="17" t="str">
+      <c r="K104" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I104" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K104" s="9" t="str">
+      <c r="O104" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q104" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I105" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O104" s="17" t="str">
+      <c r="K105" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I105" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K105" s="9" t="str">
+      <c r="O105" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q105" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I106" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O105" s="17" t="str">
+      <c r="K106" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I106" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K106" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="O106" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q106" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>95</v>
       </c>
@@ -5268,14 +5637,14 @@
         <v>5.69</v>
       </c>
       <c r="I107" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.05</v>
       </c>
       <c r="J107" s="8">
         <v>124.91</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.736290128892819</v>
       </c>
       <c r="M107" s="14">
@@ -5285,67 +5654,87 @@
         <v>6816</v>
       </c>
       <c r="O107" s="17">
+        <f t="shared" si="6"/>
+        <v>-27.171706378886633</v>
+      </c>
+      <c r="Q107" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I108" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K108" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>-27.171706378886633</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I108" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K108" s="9" t="str">
+        <v/>
+      </c>
+      <c r="O108" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q108" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I109" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O108" s="17" t="str">
+      <c r="K109" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I109" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K109" s="9" t="str">
+      <c r="O109" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q109" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I110" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O109" s="17" t="str">
+      <c r="K110" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I110" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K110" s="9" t="str">
+      <c r="O110" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q110" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I111" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O110" s="17" t="str">
+      <c r="K111" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I111" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K111" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="O111" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q111" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>96</v>
       </c>
@@ -5368,14 +5757,14 @@
         <v>5.24</v>
       </c>
       <c r="I112" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.05</v>
       </c>
       <c r="J112" s="8">
         <v>456.08</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-22.590335028942285</v>
       </c>
       <c r="M112" s="14">
@@ -5385,11 +5774,15 @@
         <v>10468</v>
       </c>
       <c r="O112" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-33.150265023309281</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q112" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>97</v>
       </c>
@@ -5412,14 +5805,14 @@
         <v>5.13</v>
       </c>
       <c r="I113" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156.77000000000001</v>
       </c>
       <c r="J113" s="8">
         <v>136.76</v>
       </c>
       <c r="K113" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.631471190406566</v>
       </c>
       <c r="M113" s="14">
@@ -5429,53 +5822,69 @@
         <v>8838</v>
       </c>
       <c r="O113" s="17">
+        <f t="shared" si="6"/>
+        <v>-33.573844419391207</v>
+      </c>
+      <c r="Q113" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I114" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K114" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>-33.573844419391207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I114" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K114" s="9" t="str">
+        <v/>
+      </c>
+      <c r="O114" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q114" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I115" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O114" s="17" t="str">
+      <c r="K115" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K115" s="9" t="str">
+      <c r="O115" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q115" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I116" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O115" s="17" t="str">
+      <c r="K116" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I116" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K116" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="O116" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q116" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>98</v>
       </c>
@@ -5498,14 +5907,14 @@
         <v>9.08</v>
       </c>
       <c r="I117" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1313.0800000000002</v>
       </c>
       <c r="J117" s="8">
         <v>1788.43</v>
       </c>
       <c r="K117" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-26.579178385511309</v>
       </c>
       <c r="M117" s="14">
@@ -5515,25 +5924,33 @@
         <v>11930</v>
       </c>
       <c r="O117" s="17">
+        <f t="shared" si="6"/>
+        <v>-17.502247424106216</v>
+      </c>
+      <c r="Q117" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I118" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K118" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>-17.502247424106216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I118" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K118" s="9" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O118" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q118" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>99</v>
       </c>
@@ -5556,14 +5973,14 @@
         <v>19.079999999999998</v>
       </c>
       <c r="I119" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>326.51</v>
       </c>
       <c r="J119" s="8">
         <v>193.47</v>
       </c>
       <c r="K119" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.765183232542498</v>
       </c>
       <c r="M119" s="14">
@@ -5573,25 +5990,33 @@
         <v>7272</v>
       </c>
       <c r="O119" s="17">
+        <f t="shared" si="6"/>
+        <v>48.711656441717793</v>
+      </c>
+      <c r="Q119" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I120" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K120" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>48.711656441717793</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I120" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K120" s="9" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O120" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q120" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>105</v>
       </c>
@@ -5614,14 +6039,14 @@
         <v>9.25</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>264.92</v>
       </c>
       <c r="J121" s="8">
         <v>215.97</v>
       </c>
       <c r="K121" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.665184979395296</v>
       </c>
       <c r="M121" s="14">
@@ -5631,8 +6056,12 @@
         <v>4009</v>
       </c>
       <c r="O121" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10.871498443752779</v>
+      </c>
+      <c r="Q121" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>ici</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
